--- a/GBP Bonds/Electrical Companies/Financials/Eastern Power Networks.xlsx
+++ b/GBP Bonds/Electrical Companies/Financials/Eastern Power Networks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Electrical Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB299F5C-28D9-4181-A8C6-0B8517FA2C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3C859-D59E-4F18-B384-9A3200C78CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4884" yWindow="3324" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Summary" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Balance Sheet" sheetId="4" r:id="rId3"/>
     <sheet name="Income Statement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="332">
   <si>
     <t>Company Fundamentals - Financial Summary</t>
   </si>
@@ -950,6 +963,75 @@
   </si>
   <si>
     <t>Eastern Power Networks PLC</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <t>Debt Service</t>
+  </si>
+  <si>
+    <t>Debt Service Percentage of Normalized after Tax Profit</t>
+  </si>
+  <si>
+    <t>Eastern Power Networks PLC (EEL.L^A96)</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>31-03-2022</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>31-03-2016</t>
+  </si>
+  <si>
+    <t>31-12-2014</t>
+  </si>
+  <si>
+    <t>31-12-2013</t>
+  </si>
+  <si>
+    <t>31-12-2012</t>
+  </si>
+  <si>
+    <t>31-12-2011</t>
+  </si>
+  <si>
+    <t>31-12-2010</t>
+  </si>
+  <si>
+    <t>31-12-2009</t>
+  </si>
+  <si>
+    <t>Common Shares - Authorized - Issue Specific</t>
+  </si>
+  <si>
+    <t>Investments - Total</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1175,11 +1257,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,19 +1595,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="11" width="15.6640625" customWidth="1"/>
+    <col min="2" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,185 +1621,267 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="5">
-        <v>44954.495352106504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44973.373604398097</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="H11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="I11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="J11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="K11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="S11" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="30">
+        <v>44651</v>
+      </c>
+      <c r="C12" s="31">
         <v>44286</v>
       </c>
-      <c r="C12" s="29">
+      <c r="D12" s="31">
         <v>44104</v>
       </c>
-      <c r="D12" s="29">
+      <c r="E12" s="31">
         <v>43921</v>
       </c>
-      <c r="E12" s="29">
+      <c r="F12" s="31">
         <v>43738</v>
       </c>
-      <c r="F12" s="29">
+      <c r="G12" s="31">
         <v>43555</v>
       </c>
-      <c r="G12" s="29">
+      <c r="H12" s="31">
         <v>43373</v>
       </c>
-      <c r="H12" s="29">
+      <c r="I12" s="31">
         <v>43190</v>
       </c>
-      <c r="I12" s="29">
+      <c r="J12" s="31">
         <v>43008</v>
       </c>
-      <c r="J12" s="29">
+      <c r="K12" s="31">
         <v>42825</v>
       </c>
-      <c r="K12" s="29">
+      <c r="L12" s="31">
         <v>42643</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="30">
+        <v>42460</v>
+      </c>
+      <c r="N12" s="30">
+        <v>42004</v>
+      </c>
+      <c r="O12" s="30">
+        <v>41639</v>
+      </c>
+      <c r="P12" s="30">
+        <v>41274</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>40908</v>
+      </c>
+      <c r="R12" s="30">
+        <v>40543</v>
+      </c>
+      <c r="S12" s="30">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1704,43 +1895,75 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1754,181 +1977,307 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="33">
+        <v>715.1</v>
+      </c>
+      <c r="C17" s="13">
         <v>368.3</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D17" s="13">
         <v>301.7</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <v>349.2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>302.89999999999998</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G17" s="13">
         <v>337.7</v>
       </c>
-      <c r="G17" s="13">
+      <c r="H17" s="13">
         <v>287.7</v>
       </c>
-      <c r="H17" s="13">
+      <c r="I17" s="13">
         <v>347.8</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <v>294.8</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K17" s="13">
         <v>341.7</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L17" s="13">
         <v>294.39999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="33">
+        <v>777.7</v>
+      </c>
+      <c r="N17" s="33">
+        <v>590.20000000000005</v>
+      </c>
+      <c r="O17" s="33">
+        <v>557.20000000000005</v>
+      </c>
+      <c r="P17" s="33">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>464.7</v>
+      </c>
+      <c r="R17" s="33">
+        <v>440.5</v>
+      </c>
+      <c r="S17" s="33">
+        <v>455.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="33">
+        <v>691.3</v>
+      </c>
+      <c r="C18" s="13">
         <v>350.8</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="13">
         <v>283.39999999999998</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <v>330.9</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <v>293.89999999999998</v>
       </c>
-      <c r="F18" s="13">
+      <c r="G18" s="13">
         <v>323.5</v>
       </c>
-      <c r="G18" s="13">
+      <c r="H18" s="13">
         <v>272.7</v>
       </c>
-      <c r="H18" s="13">
+      <c r="I18" s="13">
         <v>332</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <v>279</v>
       </c>
-      <c r="J18" s="13">
+      <c r="K18" s="13">
         <v>325.60000000000002</v>
       </c>
-      <c r="K18" s="13">
+      <c r="L18" s="13">
         <v>279.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="33">
+        <v>738.9</v>
+      </c>
+      <c r="N18" s="33">
+        <v>576.29999999999995</v>
+      </c>
+      <c r="O18" s="33">
+        <v>527.29999999999995</v>
+      </c>
+      <c r="P18" s="33">
+        <v>499.3</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>446.2</v>
+      </c>
+      <c r="R18" s="33">
+        <v>426.1</v>
+      </c>
+      <c r="S18" s="33">
+        <v>441.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="33">
+        <v>339.7</v>
+      </c>
+      <c r="C19" s="13">
         <v>185.1</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D19" s="13">
         <v>126.2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <v>177.5</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="13">
         <v>138.30000000000001</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G19" s="13">
         <v>176.6</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H19" s="13">
         <v>125.8</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I19" s="13">
         <v>177.7</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="13">
         <v>129.6</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K19" s="13">
         <v>177.4</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="13">
         <v>137.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="33">
+        <v>372.9</v>
+      </c>
+      <c r="N19" s="33">
+        <v>304.89999999999998</v>
+      </c>
+      <c r="O19" s="33">
+        <v>279</v>
+      </c>
+      <c r="P19" s="33">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>212.5</v>
+      </c>
+      <c r="R19" s="33">
+        <v>138.4</v>
+      </c>
+      <c r="S19" s="33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13">
+      <c r="B20" s="34"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13">
         <v>205.2</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <v>254.8</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="13">
         <v>213.4</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G20" s="13">
         <v>249.2</v>
       </c>
-      <c r="G20" s="13">
+      <c r="H20" s="13">
         <v>198.1</v>
       </c>
-      <c r="H20" s="13">
+      <c r="I20" s="13">
         <v>249.4</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <v>198.6</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K20" s="13">
         <v>245.7</v>
       </c>
-      <c r="K20" s="13">
+      <c r="L20" s="13">
         <v>203.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="33">
+        <v>532</v>
+      </c>
+      <c r="N20" s="33">
+        <v>404.9</v>
+      </c>
+      <c r="O20" s="33">
+        <v>356.9</v>
+      </c>
+      <c r="P20" s="33">
+        <v>334.3</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>279</v>
+      </c>
+      <c r="R20" s="33">
+        <v>257</v>
+      </c>
+      <c r="S20" s="33">
+        <v>279.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="35">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13">
         <v>134.9</v>
       </c>
-      <c r="C21" s="15">
+      <c r="D21" s="15">
         <v>29.1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="13">
         <v>169.5</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="15">
         <v>37.6</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="15">
         <v>98.3</v>
       </c>
-      <c r="G21" s="15">
+      <c r="H21" s="15">
         <v>64</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I21" s="13">
         <v>111.6</v>
       </c>
-      <c r="I21" s="15">
+      <c r="J21" s="15">
         <v>73.7</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K21" s="13">
         <v>107.3</v>
       </c>
-      <c r="K21" s="15">
+      <c r="L21" s="15">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="33">
+        <v>238.2</v>
+      </c>
+      <c r="N21" s="33">
+        <v>120.5</v>
+      </c>
+      <c r="O21" s="33">
+        <v>151.6</v>
+      </c>
+      <c r="P21" s="33">
+        <v>189.6</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>86</v>
+      </c>
+      <c r="R21" s="35">
+        <v>59.7</v>
+      </c>
+      <c r="S21" s="33">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -1942,171 +2291,279 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13">
+      <c r="B23" s="34"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13">
         <v>264.7</v>
       </c>
-      <c r="D23" s="15">
+      <c r="E23" s="15">
         <v>45</v>
       </c>
-      <c r="E23" s="15">
+      <c r="F23" s="15">
         <v>3.5</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="15">
         <v>3</v>
       </c>
-      <c r="G23" s="15">
+      <c r="H23" s="15">
         <v>65.400000000000006</v>
       </c>
-      <c r="H23" s="15">
+      <c r="I23" s="15">
         <v>7.4</v>
       </c>
-      <c r="I23" s="15">
+      <c r="J23" s="15">
         <v>3.7</v>
-      </c>
-      <c r="J23" s="15">
-        <v>5.9</v>
       </c>
       <c r="K23" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="M23" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="N23" s="35">
+        <v>18.7</v>
+      </c>
+      <c r="O23" s="35">
+        <v>17.5</v>
+      </c>
+      <c r="P23" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>11.9</v>
+      </c>
+      <c r="R23" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="S23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13">
+      <c r="B24" s="34"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13">
         <v>264.7</v>
       </c>
-      <c r="D24" s="15">
+      <c r="E24" s="15">
         <v>45</v>
       </c>
-      <c r="E24" s="15">
+      <c r="F24" s="15">
         <v>3.5</v>
       </c>
-      <c r="F24" s="15">
+      <c r="G24" s="15">
         <v>3</v>
       </c>
-      <c r="G24" s="15">
+      <c r="H24" s="15">
         <v>65.400000000000006</v>
       </c>
-      <c r="H24" s="15">
+      <c r="I24" s="15">
         <v>7.4</v>
       </c>
-      <c r="I24" s="15">
+      <c r="J24" s="15">
         <v>3.7</v>
-      </c>
-      <c r="J24" s="15">
-        <v>5.9</v>
       </c>
       <c r="K24" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="M24" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="N24" s="35">
+        <v>18.7</v>
+      </c>
+      <c r="O24" s="35">
+        <v>17.5</v>
+      </c>
+      <c r="P24" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="Q24" s="35">
+        <v>56.9</v>
+      </c>
+      <c r="R24" s="35">
+        <v>15.3</v>
+      </c>
+      <c r="S24" s="33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13">
+      <c r="B25" s="34"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13">
         <v>5891.1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E25" s="13">
         <v>5519</v>
       </c>
-      <c r="E25" s="13">
+      <c r="F25" s="13">
         <v>5335.4</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G25" s="13">
         <v>5194.1000000000004</v>
       </c>
-      <c r="G25" s="13">
+      <c r="H25" s="13">
         <v>5147.7</v>
       </c>
-      <c r="H25" s="13">
+      <c r="I25" s="13">
         <v>4975.2</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="13">
         <v>4860.1000000000004</v>
-      </c>
-      <c r="J25" s="13">
-        <v>4778.7</v>
       </c>
       <c r="K25" s="13">
         <v>4778.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="13">
+        <v>4778.7</v>
+      </c>
+      <c r="M25" s="33">
+        <v>4624.6000000000004</v>
+      </c>
+      <c r="N25" s="33">
+        <v>3521.6</v>
+      </c>
+      <c r="O25" s="33">
+        <v>3234</v>
+      </c>
+      <c r="P25" s="33">
+        <v>3067.5</v>
+      </c>
+      <c r="Q25" s="33">
+        <v>2917.6</v>
+      </c>
+      <c r="R25" s="33">
+        <v>2475.1999999999998</v>
+      </c>
+      <c r="S25" s="33">
+        <v>2439.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13">
+      <c r="B26" s="34"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13">
         <v>1843.6</v>
       </c>
-      <c r="D26" s="13">
+      <c r="E26" s="13">
         <v>1944.4</v>
       </c>
-      <c r="E26" s="13">
+      <c r="F26" s="13">
         <v>1707.9</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G26" s="13">
         <v>1701.1</v>
       </c>
-      <c r="G26" s="13">
+      <c r="H26" s="13">
         <v>1777.3</v>
       </c>
-      <c r="H26" s="13">
+      <c r="I26" s="13">
         <v>1749</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="13">
         <v>1721.6</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K26" s="13">
         <v>1703.5</v>
       </c>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="14"/>
+      <c r="M26" s="33">
+        <v>1665.4</v>
+      </c>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13">
+      <c r="B27" s="33">
+        <v>1668.3</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13">
         <v>1522</v>
       </c>
-      <c r="D27" s="13">
+      <c r="E27" s="13">
         <v>1573.5</v>
       </c>
-      <c r="E27" s="13">
+      <c r="F27" s="13">
         <v>1451</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G27" s="13">
         <v>1431.1</v>
       </c>
-      <c r="G27" s="13">
+      <c r="H27" s="13">
         <v>1423.9</v>
       </c>
-      <c r="H27" s="13">
+      <c r="I27" s="13">
         <v>1350.1</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J27" s="13">
         <v>1284.8</v>
-      </c>
-      <c r="J27" s="13">
-        <v>1257.4000000000001</v>
       </c>
       <c r="K27" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="13">
+        <v>1257.4000000000001</v>
+      </c>
+      <c r="M27" s="33">
+        <v>1264.0999999999999</v>
+      </c>
+      <c r="N27" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="O27" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="P27" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="Q27" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="R27" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="S27" s="33">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
@@ -2120,116 +2577,164 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
-    </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="33">
+        <v>574</v>
+      </c>
+      <c r="C29" s="13">
         <v>188.9</v>
       </c>
-      <c r="C29" s="15">
+      <c r="D29" s="15">
         <v>83.1</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E29" s="13">
         <v>255.6</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="13">
         <v>184.6</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="13">
         <v>246.6</v>
       </c>
-      <c r="G29" s="13">
+      <c r="H29" s="13">
         <v>142.30000000000001</v>
       </c>
-      <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="14"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="33">
+        <v>361.7</v>
+      </c>
+      <c r="C30" s="13">
         <v>191.5</v>
       </c>
-      <c r="C30" s="13">
+      <c r="D30" s="13">
         <v>161</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E30" s="13">
         <v>192.7</v>
       </c>
-      <c r="E30" s="13">
+      <c r="F30" s="13">
         <v>188.1</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G30" s="13">
         <v>194.3</v>
       </c>
-      <c r="G30" s="13">
+      <c r="H30" s="13">
         <v>171.6</v>
       </c>
-      <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="14"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="19">
+        <v>-203.7</v>
+      </c>
+      <c r="C31" s="16">
         <v>-59.6</v>
       </c>
-      <c r="C31" s="13">
+      <c r="D31" s="13">
         <v>219.7</v>
       </c>
-      <c r="D31" s="15">
+      <c r="E31" s="15">
         <v>41.5</v>
       </c>
-      <c r="E31" s="15">
+      <c r="F31" s="15">
         <v>0.5</v>
       </c>
-      <c r="F31" s="16">
+      <c r="G31" s="16">
         <v>-62.4</v>
       </c>
-      <c r="G31" s="15">
+      <c r="H31" s="15">
         <v>58</v>
       </c>
-      <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="14"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="33">
+        <v>102.9</v>
+      </c>
+      <c r="C32" s="16">
         <v>-60.1</v>
       </c>
-      <c r="C32" s="16">
+      <c r="D32" s="16">
         <v>-78</v>
       </c>
-      <c r="D32" s="16">
+      <c r="E32" s="16">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="E32" s="16">
+      <c r="F32" s="16">
         <v>-28.6</v>
       </c>
-      <c r="F32" s="16">
+      <c r="G32" s="16">
         <v>-48.8</v>
       </c>
-      <c r="G32" s="16">
+      <c r="H32" s="16">
         <v>-29.5</v>
       </c>
-      <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="14"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2243,48 +2748,64 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15">
+      <c r="B34" s="34"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15">
         <v>0.12</v>
       </c>
-      <c r="D34" s="15">
+      <c r="E34" s="15">
         <v>0.67</v>
       </c>
-      <c r="E34" s="15">
+      <c r="F34" s="15">
         <v>0.15</v>
       </c>
-      <c r="F34" s="15">
+      <c r="G34" s="15">
         <v>0.39</v>
       </c>
-      <c r="G34" s="15">
+      <c r="H34" s="15">
         <v>0.25</v>
       </c>
-      <c r="H34" s="15">
+      <c r="I34" s="15">
         <v>0.44</v>
       </c>
-      <c r="I34" s="15">
+      <c r="J34" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J34" s="15">
+      <c r="K34" s="15">
         <v>0.43</v>
       </c>
-      <c r="K34" s="15">
+      <c r="L34" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M34" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13">
-        <v>251.51</v>
-      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="13">
         <v>251.51</v>
       </c>
@@ -2309,8 +2830,20 @@
       <c r="K35" s="13">
         <v>251.51</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="M35" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
@@ -2324,303 +2857,507 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="36">
+        <v>96.67</v>
+      </c>
+      <c r="C37" s="17">
         <v>95.25</v>
       </c>
-      <c r="C37" s="17">
+      <c r="D37" s="17">
         <v>93.93</v>
       </c>
-      <c r="D37" s="17">
+      <c r="E37" s="17">
         <v>94.76</v>
       </c>
-      <c r="E37" s="17">
+      <c r="F37" s="17">
         <v>97.03</v>
       </c>
-      <c r="F37" s="17">
+      <c r="G37" s="17">
         <v>95.8</v>
       </c>
-      <c r="G37" s="17">
+      <c r="H37" s="17">
         <v>94.79</v>
       </c>
-      <c r="H37" s="17">
+      <c r="I37" s="17">
         <v>95.46</v>
       </c>
-      <c r="I37" s="17">
+      <c r="J37" s="17">
         <v>94.64</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <v>95.29</v>
       </c>
-      <c r="K37" s="17">
+      <c r="L37" s="17">
         <v>94.87</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="36">
+        <v>95.01</v>
+      </c>
+      <c r="N37" s="36">
+        <v>97.64</v>
+      </c>
+      <c r="O37" s="36">
+        <v>94.63</v>
+      </c>
+      <c r="P37" s="36">
+        <v>95.61</v>
+      </c>
+      <c r="Q37" s="36">
+        <v>96.02</v>
+      </c>
+      <c r="R37" s="36">
+        <v>96.73</v>
+      </c>
+      <c r="S37" s="36">
+        <v>96.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17">
+      <c r="B38" s="36"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17">
         <v>68.010000000000005</v>
       </c>
-      <c r="D38" s="17">
+      <c r="E38" s="17">
         <v>72.97</v>
       </c>
-      <c r="E38" s="17">
+      <c r="F38" s="17">
         <v>70.45</v>
       </c>
-      <c r="F38" s="17">
+      <c r="G38" s="17">
         <v>73.790000000000006</v>
       </c>
-      <c r="G38" s="17">
+      <c r="H38" s="17">
         <v>68.86</v>
       </c>
-      <c r="H38" s="17">
+      <c r="I38" s="17">
         <v>71.709999999999994</v>
       </c>
-      <c r="I38" s="17">
+      <c r="J38" s="17">
         <v>67.37</v>
       </c>
-      <c r="J38" s="17">
+      <c r="K38" s="17">
         <v>71.91</v>
       </c>
-      <c r="K38" s="17">
+      <c r="L38" s="17">
         <v>69.16</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="36">
+        <v>68.41</v>
+      </c>
+      <c r="N38" s="36">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="O38" s="36">
+        <v>64.05</v>
+      </c>
+      <c r="P38" s="36">
+        <v>64.02</v>
+      </c>
+      <c r="Q38" s="36">
+        <v>60.04</v>
+      </c>
+      <c r="R38" s="36">
+        <v>58.34</v>
+      </c>
+      <c r="S38" s="36">
+        <v>61.41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="36">
+        <v>47.5</v>
+      </c>
+      <c r="C39" s="17">
         <v>50.26</v>
       </c>
-      <c r="C39" s="17">
+      <c r="D39" s="17">
         <v>41.83</v>
       </c>
-      <c r="D39" s="17">
+      <c r="E39" s="17">
         <v>50.83</v>
       </c>
-      <c r="E39" s="17">
+      <c r="F39" s="17">
         <v>45.66</v>
       </c>
-      <c r="F39" s="17">
+      <c r="G39" s="17">
         <v>52.29</v>
       </c>
-      <c r="G39" s="17">
+      <c r="H39" s="17">
         <v>43.73</v>
       </c>
-      <c r="H39" s="17">
+      <c r="I39" s="17">
         <v>51.09</v>
       </c>
-      <c r="I39" s="17">
+      <c r="J39" s="17">
         <v>43.96</v>
       </c>
-      <c r="J39" s="17">
+      <c r="K39" s="17">
         <v>51.92</v>
       </c>
-      <c r="K39" s="17">
+      <c r="L39" s="17">
         <v>46.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="36">
+        <v>47.95</v>
+      </c>
+      <c r="N39" s="36">
+        <v>51.66</v>
+      </c>
+      <c r="O39" s="36">
+        <v>50.07</v>
+      </c>
+      <c r="P39" s="36">
+        <v>50.48</v>
+      </c>
+      <c r="Q39" s="36">
+        <v>45.73</v>
+      </c>
+      <c r="R39" s="36">
+        <v>31.42</v>
+      </c>
+      <c r="S39" s="36">
+        <v>47.85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="36">
+        <v>20.18</v>
+      </c>
+      <c r="C40" s="17">
         <v>45.23</v>
       </c>
-      <c r="C40" s="17">
+      <c r="D40" s="17">
         <v>11.44</v>
       </c>
-      <c r="D40" s="17">
+      <c r="E40" s="17">
         <v>67.38</v>
       </c>
-      <c r="E40" s="17">
+      <c r="F40" s="17">
         <v>15.65</v>
       </c>
-      <c r="F40" s="17">
+      <c r="G40" s="17">
         <v>35.86</v>
       </c>
-      <c r="G40" s="17">
+      <c r="H40" s="17">
         <v>27.77</v>
       </c>
-      <c r="H40" s="17">
+      <c r="I40" s="17">
         <v>39.53</v>
       </c>
-      <c r="I40" s="17">
+      <c r="J40" s="17">
         <v>32.090000000000003</v>
       </c>
-      <c r="J40" s="17">
+      <c r="K40" s="17">
         <v>39.270000000000003</v>
       </c>
-      <c r="K40" s="17">
+      <c r="L40" s="17">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M40" s="36">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="N40" s="36">
+        <v>25.14</v>
+      </c>
+      <c r="O40" s="36">
+        <v>25.45</v>
+      </c>
+      <c r="P40" s="36">
+        <v>35.22</v>
+      </c>
+      <c r="Q40" s="36">
+        <v>16.27</v>
+      </c>
+      <c r="R40" s="36">
+        <v>15.3</v>
+      </c>
+      <c r="S40" s="36">
+        <v>35.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="36">
+        <v>63.96</v>
+      </c>
+      <c r="C41" s="17">
         <v>19.03</v>
       </c>
-      <c r="C41" s="17">
+      <c r="D41" s="17">
         <v>15.65</v>
       </c>
-      <c r="D41" s="17">
+      <c r="E41" s="17">
         <v>27.96</v>
       </c>
-      <c r="E41" s="17">
+      <c r="F41" s="17">
         <v>20.68</v>
       </c>
-      <c r="F41" s="17">
+      <c r="G41" s="17">
         <v>18.829999999999998</v>
       </c>
-      <c r="G41" s="17">
+      <c r="H41" s="17">
         <v>19.899999999999999</v>
       </c>
-      <c r="H41" s="17">
+      <c r="I41" s="17">
         <v>18.84</v>
       </c>
-      <c r="I41" s="17">
+      <c r="J41" s="17">
         <v>22.09</v>
       </c>
-      <c r="J41" s="17">
+      <c r="K41" s="17">
         <v>20.04</v>
       </c>
-      <c r="K41" s="18">
+      <c r="L41" s="18">
         <v>-35.26</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M41" s="36">
+        <v>13.51</v>
+      </c>
+      <c r="N41" s="36">
+        <v>18.8</v>
+      </c>
+      <c r="O41" s="18">
+        <v>-6.91</v>
+      </c>
+      <c r="P41" s="18">
+        <v>-3.1</v>
+      </c>
+      <c r="Q41" s="18">
+        <v>-13.76</v>
+      </c>
+      <c r="R41" s="36">
+        <v>11.42</v>
+      </c>
+      <c r="S41" s="36">
+        <v>28.04</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="36">
+        <v>7.27</v>
+      </c>
+      <c r="C42" s="17">
         <v>36.630000000000003</v>
       </c>
-      <c r="C42" s="17">
+      <c r="D42" s="17">
         <v>9.65</v>
       </c>
-      <c r="D42" s="17">
+      <c r="E42" s="17">
         <v>48.54</v>
       </c>
-      <c r="E42" s="17">
+      <c r="F42" s="17">
         <v>12.41</v>
       </c>
-      <c r="F42" s="17">
+      <c r="G42" s="17">
         <v>29.11</v>
       </c>
-      <c r="G42" s="17">
+      <c r="H42" s="17">
         <v>22.25</v>
       </c>
-      <c r="H42" s="17">
+      <c r="I42" s="17">
         <v>32.090000000000003</v>
       </c>
-      <c r="I42" s="17">
+      <c r="J42" s="17">
         <v>25</v>
       </c>
-      <c r="J42" s="17">
+      <c r="K42" s="17">
         <v>31.4</v>
       </c>
-      <c r="K42" s="17">
+      <c r="L42" s="17">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="36">
+        <v>30.63</v>
+      </c>
+      <c r="N42" s="36">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="O42" s="36">
+        <v>27.21</v>
+      </c>
+      <c r="P42" s="36">
+        <v>36.31</v>
+      </c>
+      <c r="Q42" s="36">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="R42" s="36">
+        <v>13.55</v>
+      </c>
+      <c r="S42" s="36">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17">
+      <c r="B43" s="36"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17">
         <v>13.36</v>
       </c>
-      <c r="D43" s="17">
+      <c r="E43" s="17">
         <v>13.79</v>
       </c>
-      <c r="E43" s="17">
+      <c r="F43" s="17">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F43" s="17">
+      <c r="G43" s="17">
         <v>11.67</v>
       </c>
-      <c r="G43" s="17">
+      <c r="H43" s="17">
         <v>12.97</v>
       </c>
-      <c r="H43" s="17">
+      <c r="I43" s="17">
         <v>14.21</v>
       </c>
-      <c r="I43" s="17">
+      <c r="J43" s="17">
         <v>14.24</v>
       </c>
-      <c r="J43" s="17"/>
       <c r="K43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="17"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36">
+        <v>11.11</v>
+      </c>
+      <c r="O43" s="36">
+        <v>15.2</v>
+      </c>
+      <c r="P43" s="36">
+        <v>21.64</v>
+      </c>
+      <c r="Q43" s="36">
+        <v>10.46</v>
+      </c>
+      <c r="R43" s="36">
+        <v>7.25</v>
+      </c>
+      <c r="S43" s="36"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17">
+      <c r="B44" s="36"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17">
         <v>3.54</v>
       </c>
-      <c r="D44" s="17">
+      <c r="E44" s="17">
         <v>3.87</v>
       </c>
-      <c r="E44" s="17">
+      <c r="F44" s="17">
         <v>2.59</v>
       </c>
-      <c r="F44" s="17">
+      <c r="G44" s="17">
         <v>3.19</v>
       </c>
-      <c r="G44" s="17">
+      <c r="H44" s="17">
         <v>3.51</v>
       </c>
-      <c r="H44" s="17">
+      <c r="I44" s="17">
         <v>3.8</v>
       </c>
-      <c r="I44" s="17">
+      <c r="J44" s="17">
         <v>3.76</v>
       </c>
-      <c r="J44" s="17"/>
       <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="17"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36">
+        <v>3.57</v>
+      </c>
+      <c r="O44" s="36">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="P44" s="36">
+        <v>6.34</v>
+      </c>
+      <c r="Q44" s="36">
+        <v>3.19</v>
+      </c>
+      <c r="R44" s="36">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="S44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17">
+      <c r="B45" s="36"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17">
         <v>8.08</v>
       </c>
-      <c r="D45" s="17">
+      <c r="E45" s="17">
         <v>8.06</v>
       </c>
-      <c r="E45" s="17">
+      <c r="F45" s="17">
         <v>6.35</v>
       </c>
-      <c r="F45" s="17">
+      <c r="G45" s="17">
         <v>7.32</v>
       </c>
-      <c r="G45" s="17">
+      <c r="H45" s="17">
         <v>7.8</v>
       </c>
-      <c r="H45" s="17">
+      <c r="I45" s="17">
         <v>8.2799999999999994</v>
       </c>
-      <c r="I45" s="17">
+      <c r="J45" s="17">
         <v>10.68</v>
       </c>
-      <c r="J45" s="17"/>
       <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="17"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36">
+        <v>15.96</v>
+      </c>
+      <c r="O45" s="36">
+        <v>22.18</v>
+      </c>
+      <c r="P45" s="36">
+        <v>29.44</v>
+      </c>
+      <c r="Q45" s="36">
+        <v>17.84</v>
+      </c>
+      <c r="R45" s="36">
+        <v>22.44</v>
+      </c>
+      <c r="S45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>67</v>
       </c>
@@ -2634,186 +3371,296 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="33">
+        <v>715.1</v>
+      </c>
+      <c r="C47" s="13">
         <v>368.3</v>
       </c>
-      <c r="C47" s="13">
+      <c r="D47" s="13">
         <v>301.7</v>
       </c>
-      <c r="D47" s="13">
+      <c r="E47" s="13">
         <v>349.2</v>
       </c>
-      <c r="E47" s="13">
+      <c r="F47" s="13">
         <v>302.89999999999998</v>
       </c>
-      <c r="F47" s="13">
+      <c r="G47" s="13">
         <v>337.7</v>
       </c>
-      <c r="G47" s="13">
+      <c r="H47" s="13">
         <v>287.7</v>
       </c>
-      <c r="H47" s="13">
+      <c r="I47" s="13">
         <v>347.8</v>
       </c>
-      <c r="I47" s="13">
+      <c r="J47" s="13">
         <v>294.8</v>
       </c>
-      <c r="J47" s="13">
+      <c r="K47" s="13">
         <v>341.7</v>
       </c>
-      <c r="K47" s="13">
+      <c r="L47" s="13">
         <v>294.39999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="33">
+        <v>777.7</v>
+      </c>
+      <c r="N47" s="33">
+        <v>590.20000000000005</v>
+      </c>
+      <c r="O47" s="33">
+        <v>557.20000000000005</v>
+      </c>
+      <c r="P47" s="33">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="Q47" s="33">
+        <v>464.7</v>
+      </c>
+      <c r="R47" s="33">
+        <v>440.5</v>
+      </c>
+      <c r="S47" s="33">
+        <v>455.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="33">
+        <v>339.7</v>
+      </c>
+      <c r="C48" s="13">
         <v>185.1</v>
       </c>
-      <c r="C48" s="13">
+      <c r="D48" s="13">
         <v>126.2</v>
       </c>
-      <c r="D48" s="13">
+      <c r="E48" s="13">
         <v>177.5</v>
       </c>
-      <c r="E48" s="13">
+      <c r="F48" s="13">
         <v>138.30000000000001</v>
       </c>
-      <c r="F48" s="13">
+      <c r="G48" s="13">
         <v>176.6</v>
       </c>
-      <c r="G48" s="13">
+      <c r="H48" s="13">
         <v>125.8</v>
       </c>
-      <c r="H48" s="13">
+      <c r="I48" s="13">
         <v>177.7</v>
       </c>
-      <c r="I48" s="13">
+      <c r="J48" s="13">
         <v>129.6</v>
       </c>
-      <c r="J48" s="13">
+      <c r="K48" s="13">
         <v>177.4</v>
       </c>
-      <c r="K48" s="13">
+      <c r="L48" s="13">
         <v>137.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="33">
+        <v>372.9</v>
+      </c>
+      <c r="N48" s="33">
+        <v>304.89999999999998</v>
+      </c>
+      <c r="O48" s="33">
+        <v>279</v>
+      </c>
+      <c r="P48" s="33">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="Q48" s="33">
+        <v>212.5</v>
+      </c>
+      <c r="R48" s="33">
+        <v>138.4</v>
+      </c>
+      <c r="S48" s="33">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="13">
+      <c r="B49" s="34"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13">
         <v>205.2</v>
       </c>
-      <c r="D49" s="13">
+      <c r="E49" s="13">
         <v>254.8</v>
       </c>
-      <c r="E49" s="13">
+      <c r="F49" s="13">
         <v>213.4</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="13">
         <v>249.2</v>
       </c>
-      <c r="G49" s="13">
+      <c r="H49" s="13">
         <v>198.1</v>
       </c>
-      <c r="H49" s="13">
+      <c r="I49" s="13">
         <v>249.4</v>
       </c>
-      <c r="I49" s="13">
+      <c r="J49" s="13">
         <v>198.6</v>
       </c>
-      <c r="J49" s="13">
+      <c r="K49" s="13">
         <v>245.7</v>
       </c>
-      <c r="K49" s="13">
+      <c r="L49" s="13">
         <v>203.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M49" s="33">
+        <v>532</v>
+      </c>
+      <c r="N49" s="33">
+        <v>404.9</v>
+      </c>
+      <c r="O49" s="33">
+        <v>356.9</v>
+      </c>
+      <c r="P49" s="33">
+        <v>334.3</v>
+      </c>
+      <c r="Q49" s="33">
+        <v>279</v>
+      </c>
+      <c r="R49" s="33">
+        <v>257</v>
+      </c>
+      <c r="S49" s="33">
+        <v>279.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="35">
+        <v>52</v>
+      </c>
+      <c r="C50" s="13">
         <v>134.9</v>
       </c>
-      <c r="C50" s="15">
+      <c r="D50" s="15">
         <v>29.1</v>
       </c>
-      <c r="D50" s="13">
+      <c r="E50" s="13">
         <v>169.5</v>
       </c>
-      <c r="E50" s="15">
+      <c r="F50" s="15">
         <v>37.6</v>
       </c>
-      <c r="F50" s="15">
+      <c r="G50" s="15">
         <v>98.3</v>
       </c>
-      <c r="G50" s="15">
+      <c r="H50" s="15">
         <v>64</v>
       </c>
-      <c r="H50" s="13">
+      <c r="I50" s="13">
         <v>111.6</v>
       </c>
-      <c r="I50" s="15">
+      <c r="J50" s="15">
         <v>73.7</v>
       </c>
-      <c r="J50" s="13">
+      <c r="K50" s="13">
         <v>107.3</v>
       </c>
-      <c r="K50" s="15">
+      <c r="L50" s="15">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="33">
+        <v>238.2</v>
+      </c>
+      <c r="N50" s="33">
+        <v>120.5</v>
+      </c>
+      <c r="O50" s="33">
+        <v>151.6</v>
+      </c>
+      <c r="P50" s="33">
+        <v>189.6</v>
+      </c>
+      <c r="Q50" s="35">
+        <v>86</v>
+      </c>
+      <c r="R50" s="35">
+        <v>59.7</v>
+      </c>
+      <c r="S50" s="33">
+        <v>117.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="15">
+      <c r="B51" s="34"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15">
         <v>0.12</v>
       </c>
-      <c r="D51" s="15">
+      <c r="E51" s="15">
         <v>0.67</v>
       </c>
-      <c r="E51" s="15">
+      <c r="F51" s="15">
         <v>0.15</v>
       </c>
-      <c r="F51" s="15">
+      <c r="G51" s="15">
         <v>0.39</v>
       </c>
-      <c r="G51" s="15">
+      <c r="H51" s="15">
         <v>0.25</v>
       </c>
-      <c r="H51" s="15">
+      <c r="I51" s="15">
         <v>0.44</v>
       </c>
-      <c r="I51" s="15">
+      <c r="J51" s="15">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J51" s="15">
+      <c r="K51" s="15">
         <v>0.43</v>
       </c>
-      <c r="K51" s="15">
+      <c r="L51" s="15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M51" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13">
-        <v>251.51</v>
-      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="13">
         <v>251.51</v>
       </c>
@@ -2838,8 +3685,32 @@
       <c r="K52" s="13">
         <v>251.51</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="M52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="O52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="P52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="Q52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="R52" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="S52" s="33">
+        <v>251.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>69</v>
       </c>
@@ -2853,283 +3724,407 @@
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17">
+      <c r="B54" s="36"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17">
         <v>31.29</v>
       </c>
-      <c r="D54" s="17">
+      <c r="E54" s="17">
         <v>35.229999999999997</v>
       </c>
-      <c r="E54" s="17">
+      <c r="F54" s="17">
         <v>32.01</v>
       </c>
-      <c r="F54" s="17">
+      <c r="G54" s="17">
         <v>32.75</v>
       </c>
-      <c r="G54" s="17">
+      <c r="H54" s="17">
         <v>34.53</v>
       </c>
-      <c r="H54" s="17">
+      <c r="I54" s="17">
         <v>35.15</v>
       </c>
-      <c r="I54" s="17">
+      <c r="J54" s="17">
         <v>35.42</v>
       </c>
-      <c r="J54" s="17">
+      <c r="K54" s="17">
         <v>35.65</v>
       </c>
-      <c r="K54" s="17"/>
-    </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="17"/>
+      <c r="M54" s="36">
+        <v>36.01</v>
+      </c>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="36"/>
+      <c r="S54" s="36"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17">
+      <c r="B55" s="36"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17">
         <v>54.78</v>
       </c>
-      <c r="D55" s="17">
+      <c r="E55" s="17">
         <v>55.27</v>
       </c>
-      <c r="E55" s="17">
+      <c r="F55" s="17">
         <v>54.07</v>
       </c>
-      <c r="F55" s="17">
+      <c r="G55" s="17">
         <v>54.31</v>
       </c>
-      <c r="G55" s="17">
+      <c r="H55" s="17">
         <v>55.52</v>
       </c>
-      <c r="H55" s="17">
+      <c r="I55" s="17">
         <v>56.44</v>
       </c>
-      <c r="I55" s="17">
+      <c r="J55" s="17">
         <v>57.26</v>
       </c>
-      <c r="J55" s="17">
+      <c r="K55" s="17">
         <v>57.53</v>
       </c>
-      <c r="K55" s="17"/>
-    </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="17"/>
+      <c r="M55" s="36">
+        <v>56.85</v>
+      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17">
+      <c r="B56" s="36"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17">
         <v>121.13</v>
       </c>
-      <c r="D56" s="17">
+      <c r="E56" s="17">
         <v>123.57</v>
       </c>
-      <c r="E56" s="17">
+      <c r="F56" s="17">
         <v>117.71</v>
       </c>
-      <c r="F56" s="17">
+      <c r="G56" s="17">
         <v>118.87</v>
       </c>
-      <c r="G56" s="17">
+      <c r="H56" s="17">
         <v>124.82</v>
       </c>
-      <c r="H56" s="17">
+      <c r="I56" s="17">
         <v>129.55000000000001</v>
       </c>
-      <c r="I56" s="17">
+      <c r="J56" s="17">
         <v>134</v>
       </c>
-      <c r="J56" s="17">
+      <c r="K56" s="17">
         <v>135.47999999999999</v>
       </c>
-      <c r="K56" s="17"/>
-    </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="17"/>
+      <c r="M56" s="36">
+        <v>131.75</v>
+      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36"/>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="33">
+        <v>195.4</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35">
+        <v>58.9</v>
+      </c>
+      <c r="O57" s="35">
+        <v>59.1</v>
+      </c>
+      <c r="P57" s="35">
+        <v>60.4</v>
+      </c>
+      <c r="Q57" s="35">
+        <v>48.6</v>
+      </c>
+      <c r="R57" s="33">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="S57" s="33">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B58" s="36">
+        <v>375.77</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36">
+        <v>27.14</v>
+      </c>
+      <c r="O58" s="36">
+        <v>25.98</v>
+      </c>
+      <c r="P58" s="36">
+        <v>28.91</v>
+      </c>
+      <c r="Q58" s="36">
+        <v>27.88</v>
+      </c>
+      <c r="R58" s="36">
+        <v>235.68</v>
+      </c>
+      <c r="S58" s="36">
+        <v>94.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B59" s="35">
+        <v>1.74</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="35">
+        <v>3.94</v>
+      </c>
+      <c r="N59" s="35">
+        <v>4.71</v>
+      </c>
+      <c r="O59" s="35">
+        <v>4.29</v>
+      </c>
+      <c r="P59" s="35">
+        <v>3.98</v>
+      </c>
+      <c r="Q59" s="35">
+        <v>3.98</v>
+      </c>
+      <c r="R59" s="35">
+        <v>0.98</v>
+      </c>
+      <c r="S59" s="35">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="15">
         <v>10.01</v>
       </c>
-      <c r="C57" s="15">
+      <c r="D60" s="15">
         <v>2.92</v>
       </c>
-      <c r="D57" s="15">
+      <c r="E60" s="15">
         <v>4.21</v>
       </c>
-      <c r="E57" s="15">
+      <c r="F60" s="15">
         <v>3.37</v>
       </c>
-      <c r="F57" s="15">
+      <c r="G60" s="15">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G57" s="15">
+      <c r="H60" s="15">
         <v>3.11</v>
       </c>
-      <c r="H57" s="15">
+      <c r="I60" s="15">
         <v>4.28</v>
       </c>
-      <c r="I57" s="15">
+      <c r="J60" s="15">
         <v>3.2</v>
       </c>
-      <c r="J57" s="15">
+      <c r="K60" s="15">
         <v>4.41</v>
       </c>
-      <c r="K57" s="15">
+      <c r="L60" s="15">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36">
+        <v>114.67</v>
+      </c>
+      <c r="R60" s="36">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="S60" s="36"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15">
+      <c r="B61" s="34"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15">
         <v>1</v>
       </c>
-      <c r="D58" s="15">
+      <c r="E61" s="15">
         <v>1</v>
       </c>
-      <c r="E58" s="15">
+      <c r="F61" s="15">
         <v>1</v>
       </c>
-      <c r="F58" s="15">
+      <c r="G61" s="15">
         <v>1</v>
       </c>
-      <c r="G58" s="15">
+      <c r="H61" s="15">
         <v>1</v>
       </c>
-      <c r="H58" s="15">
+      <c r="I61" s="15">
         <v>1</v>
       </c>
-      <c r="I58" s="15">
+      <c r="J61" s="15">
         <v>1</v>
       </c>
-      <c r="J58" s="15">
+      <c r="K61" s="15">
         <v>1</v>
       </c>
-      <c r="K58" s="15">
+      <c r="L61" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="M61" s="34"/>
+      <c r="N61" s="35">
+        <v>1</v>
+      </c>
+      <c r="O61" s="35">
+        <v>1</v>
+      </c>
+      <c r="P61" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="R61" s="35">
+        <v>0.64</v>
+      </c>
+      <c r="S61" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17">
+      <c r="B62" s="36"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17">
         <v>0</v>
       </c>
-      <c r="D59" s="17">
+      <c r="E62" s="17">
         <v>0</v>
       </c>
-      <c r="E59" s="17">
+      <c r="F62" s="17">
         <v>0</v>
       </c>
-      <c r="F59" s="17">
+      <c r="G62" s="17">
         <v>0</v>
       </c>
-      <c r="G59" s="17">
+      <c r="H62" s="17">
         <v>0</v>
       </c>
-      <c r="H59" s="17">
+      <c r="I62" s="17">
         <v>0</v>
       </c>
-      <c r="I59" s="17">
+      <c r="J62" s="17">
         <v>0</v>
       </c>
-      <c r="J59" s="17">
+      <c r="K62" s="17">
         <v>0</v>
       </c>
-      <c r="K59" s="17">
+      <c r="L62" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="M62" s="36"/>
+      <c r="N62" s="36">
+        <v>0</v>
+      </c>
+      <c r="O62" s="36">
+        <v>0</v>
+      </c>
+      <c r="P62" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="36">
+        <v>87.21</v>
+      </c>
+      <c r="R62" s="36">
+        <v>35.51</v>
+      </c>
+      <c r="S62" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="13">
-        <v>1843.6</v>
-      </c>
-      <c r="D61" s="13">
-        <v>1944.4</v>
-      </c>
-      <c r="E61" s="13">
-        <v>1707.9</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1701.1</v>
-      </c>
-      <c r="G61" s="13">
-        <v>1777.3</v>
-      </c>
-      <c r="H61" s="13">
-        <v>1749</v>
-      </c>
-      <c r="I61" s="13">
-        <v>1721.6</v>
-      </c>
-      <c r="J61" s="13">
-        <v>1703.5</v>
-      </c>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13">
-        <v>264.7</v>
-      </c>
-      <c r="D62" s="15">
-        <v>45</v>
-      </c>
-      <c r="E62" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="F62" s="15">
-        <v>3</v>
-      </c>
-      <c r="G62" s="15">
-        <v>65.400000000000006</v>
-      </c>
-      <c r="H62" s="15">
-        <v>7.4</v>
-      </c>
-      <c r="I62" s="15">
-        <v>3.7</v>
-      </c>
-      <c r="J62" s="15">
-        <v>5.9</v>
-      </c>
-      <c r="K62" s="15">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3141,362 +4136,584 @@
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="34"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13">
+        <v>1843.6</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1944.4</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1707.9</v>
+      </c>
+      <c r="G64" s="13">
+        <v>1701.1</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1777.3</v>
+      </c>
+      <c r="I64" s="13">
+        <v>1749</v>
+      </c>
+      <c r="J64" s="13">
+        <v>1721.6</v>
+      </c>
+      <c r="K64" s="13">
+        <v>1703.5</v>
+      </c>
+      <c r="L64" s="14"/>
+      <c r="M64" s="33">
+        <v>1665.4</v>
+      </c>
+      <c r="N64" s="34"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="34"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="34"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="13">
+        <v>264.7</v>
+      </c>
+      <c r="E65" s="15">
+        <v>45</v>
+      </c>
+      <c r="F65" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G65" s="15">
+        <v>3</v>
+      </c>
+      <c r="H65" s="15">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="I65" s="15">
+        <v>7.4</v>
+      </c>
+      <c r="J65" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="K65" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="L65" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="M65" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="N65" s="35">
+        <v>18.7</v>
+      </c>
+      <c r="O65" s="35">
+        <v>17.5</v>
+      </c>
+      <c r="P65" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="Q65" s="35">
+        <v>56.9</v>
+      </c>
+      <c r="R65" s="35">
+        <v>15.3</v>
+      </c>
+      <c r="S65" s="33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15">
+      <c r="B67" s="34"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15">
         <v>0.12</v>
       </c>
-      <c r="D64" s="15">
+      <c r="E67" s="15">
         <v>0.12</v>
       </c>
-      <c r="E64" s="15">
+      <c r="F67" s="15">
         <v>0.12</v>
       </c>
-      <c r="F64" s="15">
+      <c r="G67" s="15">
         <v>0.12</v>
       </c>
-      <c r="G64" s="15">
+      <c r="H67" s="15">
         <v>0.13</v>
       </c>
-      <c r="H64" s="15">
+      <c r="I67" s="15">
         <v>0.13</v>
       </c>
-      <c r="I64" s="15">
+      <c r="J67" s="15">
         <v>0.13</v>
       </c>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="O67" s="35">
+        <v>0.18</v>
+      </c>
+      <c r="P67" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="Q67" s="35">
+        <v>0.17</v>
+      </c>
+      <c r="R67" s="35">
+        <v>0.18</v>
+      </c>
+      <c r="S67" s="34"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B68" s="36">
+        <v>20.18</v>
+      </c>
+      <c r="C68" s="17">
         <v>30.01</v>
       </c>
-      <c r="C65" s="17">
+      <c r="D68" s="17">
         <v>41.45</v>
       </c>
-      <c r="D65" s="17">
+      <c r="E68" s="17">
         <v>43.35</v>
       </c>
-      <c r="E65" s="17">
+      <c r="F68" s="17">
         <v>26.3</v>
       </c>
-      <c r="F65" s="17">
+      <c r="G68" s="17">
         <v>32.14</v>
       </c>
-      <c r="G65" s="17">
+      <c r="H68" s="17">
         <v>34.21</v>
       </c>
-      <c r="H65" s="17">
+      <c r="I68" s="17">
         <v>36.119999999999997</v>
       </c>
-      <c r="I65" s="17">
+      <c r="J68" s="17">
         <v>35.950000000000003</v>
       </c>
-      <c r="J65" s="17">
+      <c r="K68" s="17">
         <v>23.55</v>
       </c>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="L68" s="17"/>
+      <c r="M68" s="36">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="N68" s="36">
+        <v>25.14</v>
+      </c>
+      <c r="O68" s="36">
+        <v>25.45</v>
+      </c>
+      <c r="P68" s="36">
+        <v>35.22</v>
+      </c>
+      <c r="Q68" s="36">
+        <v>16.27</v>
+      </c>
+      <c r="R68" s="36">
+        <v>15.3</v>
+      </c>
+      <c r="S68" s="36">
+        <v>35.78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17">
+      <c r="B69" s="36"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D66" s="17">
+      <c r="E69" s="17">
         <v>5.28</v>
       </c>
-      <c r="E66" s="17">
+      <c r="F69" s="17">
         <v>3.21</v>
       </c>
-      <c r="F66" s="17">
+      <c r="G69" s="17">
         <v>3.95</v>
       </c>
-      <c r="G66" s="17">
+      <c r="H69" s="17">
         <v>4.34</v>
       </c>
-      <c r="H66" s="17">
+      <c r="I69" s="17">
         <v>4.76</v>
       </c>
-      <c r="I66" s="17">
+      <c r="J69" s="17">
         <v>4.75</v>
       </c>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-    </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="O69" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="P69" s="36">
+        <v>6.15</v>
+      </c>
+      <c r="Q69" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="R69" s="36">
+        <v>2.74</v>
+      </c>
+      <c r="S69" s="36"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15">
+      <c r="B70" s="34"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15">
         <v>3.78</v>
       </c>
-      <c r="D67" s="15">
+      <c r="E70" s="15">
         <v>3.57</v>
       </c>
-      <c r="E67" s="15">
+      <c r="F70" s="15">
         <v>3.65</v>
       </c>
-      <c r="F67" s="15">
+      <c r="G70" s="15">
         <v>3.66</v>
       </c>
-      <c r="G67" s="15">
+      <c r="H70" s="15">
         <v>3.69</v>
       </c>
-      <c r="H67" s="15">
+      <c r="I70" s="15">
         <v>3.74</v>
       </c>
-      <c r="I67" s="15">
+      <c r="J70" s="15">
         <v>3.79</v>
       </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="35">
+        <v>3.11</v>
+      </c>
+      <c r="O70" s="35">
+        <v>3.16</v>
+      </c>
+      <c r="P70" s="35">
+        <v>3.42</v>
+      </c>
+      <c r="Q70" s="35">
+        <v>3.28</v>
+      </c>
+      <c r="R70" s="35">
+        <v>2.99</v>
+      </c>
+      <c r="S70" s="34"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17">
+      <c r="B71" s="36"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17">
         <v>18.149999999999999</v>
       </c>
-      <c r="D68" s="17">
+      <c r="E71" s="17">
         <v>18.82</v>
       </c>
-      <c r="E68" s="17">
+      <c r="F71" s="17">
         <v>11.72</v>
       </c>
-      <c r="F68" s="17">
+      <c r="G71" s="17">
         <v>14.45</v>
       </c>
-      <c r="G68" s="17">
+      <c r="H71" s="17">
         <v>16.05</v>
       </c>
-      <c r="H68" s="17">
+      <c r="I71" s="17">
         <v>17.8</v>
       </c>
-      <c r="I68" s="17">
+      <c r="J71" s="17">
         <v>18</v>
       </c>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-    </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36">
+        <v>13.68</v>
+      </c>
+      <c r="O71" s="36">
+        <v>14.22</v>
+      </c>
+      <c r="P71" s="36">
+        <v>20.99</v>
+      </c>
+      <c r="Q71" s="36">
+        <v>9.19</v>
+      </c>
+      <c r="R71" s="36">
+        <v>8.19</v>
+      </c>
+      <c r="S71" s="36"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B72" s="35">
+        <v>0.36</v>
+      </c>
+      <c r="C72" s="15">
         <v>0.82</v>
       </c>
-      <c r="C69" s="15">
+      <c r="D72" s="15">
         <v>0.74</v>
       </c>
-      <c r="D69" s="15">
+      <c r="E72" s="15">
         <v>0.73</v>
       </c>
-      <c r="E69" s="15">
+      <c r="F72" s="15">
         <v>0.81</v>
       </c>
-      <c r="F69" s="15">
+      <c r="G72" s="15">
         <v>0.81</v>
       </c>
-      <c r="G69" s="15">
+      <c r="H72" s="15">
         <v>0.81</v>
       </c>
-      <c r="H69" s="15">
+      <c r="I72" s="15">
         <v>0.8</v>
       </c>
-      <c r="I69" s="15">
+      <c r="J72" s="15">
         <v>0.79</v>
       </c>
-      <c r="J69" s="15">
+      <c r="K72" s="15">
         <v>0.86</v>
       </c>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="L72" s="14"/>
+      <c r="M72" s="35">
+        <v>0.86</v>
+      </c>
+      <c r="N72" s="35">
+        <v>0.81</v>
+      </c>
+      <c r="O72" s="35">
+        <v>1.07</v>
+      </c>
+      <c r="P72" s="35">
+        <v>1.03</v>
+      </c>
+      <c r="Q72" s="35">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="R72" s="35">
+        <v>0.89</v>
+      </c>
+      <c r="S72" s="35">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17">
+      <c r="B73" s="36"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17">
         <v>13.36</v>
       </c>
-      <c r="D70" s="17">
+      <c r="E73" s="17">
         <v>13.79</v>
       </c>
-      <c r="E70" s="17">
+      <c r="F73" s="17">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F70" s="17">
+      <c r="G73" s="17">
         <v>11.67</v>
       </c>
-      <c r="G70" s="17">
+      <c r="H73" s="17">
         <v>12.97</v>
       </c>
-      <c r="H70" s="17">
+      <c r="I73" s="17">
         <v>14.21</v>
       </c>
-      <c r="I70" s="17">
+      <c r="J73" s="17">
         <v>14.24</v>
       </c>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36">
+        <v>11.11</v>
+      </c>
+      <c r="O73" s="36">
+        <v>15.2</v>
+      </c>
+      <c r="P73" s="36">
+        <v>21.64</v>
+      </c>
+      <c r="Q73" s="36">
+        <v>10.46</v>
+      </c>
+      <c r="R73" s="36">
+        <v>7.25</v>
+      </c>
+      <c r="S73" s="36"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15">
+      <c r="B74" s="34"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15">
         <v>1</v>
       </c>
-      <c r="D71" s="15">
+      <c r="E74" s="15">
         <v>1</v>
       </c>
-      <c r="E71" s="15">
+      <c r="F74" s="15">
         <v>1</v>
       </c>
-      <c r="F71" s="15">
+      <c r="G74" s="15">
         <v>1</v>
       </c>
-      <c r="G71" s="15">
+      <c r="H74" s="15">
         <v>1</v>
       </c>
-      <c r="H71" s="15">
+      <c r="I74" s="15">
         <v>1</v>
       </c>
-      <c r="I71" s="15">
+      <c r="J74" s="15">
         <v>1</v>
       </c>
-      <c r="J71" s="15">
+      <c r="K74" s="15">
         <v>1</v>
       </c>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+      <c r="L74" s="14"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="35">
+        <v>1</v>
+      </c>
+      <c r="O74" s="35">
+        <v>1</v>
+      </c>
+      <c r="P74" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="35">
+        <v>0.13</v>
+      </c>
+      <c r="R74" s="35">
+        <v>0.64</v>
+      </c>
+      <c r="S74" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17">
+      <c r="B75" s="36"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17">
         <v>13.36</v>
       </c>
-      <c r="D72" s="17">
+      <c r="E75" s="17">
         <v>13.79</v>
       </c>
-      <c r="E72" s="17">
+      <c r="F75" s="17">
         <v>9.4499999999999993</v>
       </c>
-      <c r="F72" s="17">
+      <c r="G75" s="17">
         <v>11.67</v>
       </c>
-      <c r="G72" s="17">
+      <c r="H75" s="17">
         <v>12.97</v>
       </c>
-      <c r="H72" s="17">
+      <c r="I75" s="17">
         <v>14.21</v>
       </c>
-      <c r="I72" s="17">
+      <c r="J75" s="17">
         <v>14.24</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36">
+        <v>11.11</v>
+      </c>
+      <c r="O75" s="36">
+        <v>15.2</v>
+      </c>
+      <c r="P75" s="36">
+        <v>21.64</v>
+      </c>
+      <c r="Q75" s="36">
+        <v>1.34</v>
+      </c>
+      <c r="R75" s="36">
+        <v>4.68</v>
+      </c>
+      <c r="S75" s="36"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="15">
-        <v>0.94</v>
-      </c>
-      <c r="D74" s="15">
-        <v>1.36</v>
-      </c>
-      <c r="E74" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="F74" s="15">
-        <v>0.71</v>
-      </c>
-      <c r="G74" s="15">
-        <v>1.07</v>
-      </c>
-      <c r="H74" s="15">
-        <v>1.05</v>
-      </c>
-      <c r="I74" s="15">
-        <v>0.91</v>
-      </c>
-      <c r="J74" s="15">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="K74" s="15">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="16">
-        <v>-0.01</v>
-      </c>
-      <c r="D75" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="E75" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="F75" s="16">
-        <v>-0.02</v>
-      </c>
-      <c r="G75" s="14">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14">
-        <v>0</v>
-      </c>
-      <c r="I75" s="16">
-        <v>-0.01</v>
-      </c>
-      <c r="J75" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="K75" s="15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -3508,162 +4725,446 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
-    </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+    </row>
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="34"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15">
+        <v>0.93884226994737574</v>
+      </c>
+      <c r="E77" s="15">
+        <v>1.3597359735973598</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0.70890811316343227</v>
+      </c>
+      <c r="G77" s="15">
+        <v>0.70534117045744948</v>
+      </c>
+      <c r="H77" s="15">
+        <v>1.0692798541476753</v>
+      </c>
+      <c r="I77" s="15">
+        <v>1.0463378176382661</v>
+      </c>
+      <c r="J77" s="15">
+        <v>0.91206543967280163</v>
+      </c>
+      <c r="K77" s="15">
+        <v>1.1282362459546924</v>
+      </c>
+      <c r="L77" s="15">
+        <v>1.1282362459546924</v>
+      </c>
+      <c r="M77" s="35">
+        <v>1.1574743248383417</v>
+      </c>
+      <c r="N77" s="35">
+        <v>0.48953391013117492</v>
+      </c>
+      <c r="O77" s="35">
+        <v>0.36640976236351958</v>
+      </c>
+      <c r="P77" s="35">
+        <v>0.48067525544202577</v>
+      </c>
+      <c r="Q77" s="35">
+        <v>0.70052356020942408</v>
+      </c>
+      <c r="R77" s="35">
+        <v>0.33971504897595728</v>
+      </c>
+      <c r="S77" s="35">
+        <v>0.9717314487632509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1.36</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="G78" s="15">
+        <v>0.71</v>
+      </c>
+      <c r="H78" s="15">
+        <v>1.07</v>
+      </c>
+      <c r="I78" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="J78" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="K78" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L78" s="15">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M78" s="35">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="N78" s="35">
+        <v>0.49</v>
+      </c>
+      <c r="O78" s="35">
+        <v>0.37</v>
+      </c>
+      <c r="P78" s="35">
+        <v>0.48</v>
+      </c>
+      <c r="Q78" s="35">
+        <v>0.7</v>
+      </c>
+      <c r="R78" s="35">
+        <v>0.34</v>
+      </c>
+      <c r="S78" s="35">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="E79" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F79" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="G79" s="16">
+        <v>-0.02</v>
+      </c>
+      <c r="H79" s="14">
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0</v>
+      </c>
+      <c r="J79" s="16">
+        <v>-0.01</v>
+      </c>
+      <c r="K79" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L79" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M79" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="N79" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="O79" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="P79" s="16">
+        <v>-0.04</v>
+      </c>
+      <c r="Q79" s="16">
+        <v>-0.05</v>
+      </c>
+      <c r="R79" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="S79" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="15">
+      <c r="B81" s="34"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15">
         <v>1.87</v>
       </c>
-      <c r="D77" s="15">
+      <c r="E81" s="15">
         <v>2.1800000000000002</v>
       </c>
-      <c r="E77" s="15">
+      <c r="F81" s="15">
         <v>2.19</v>
       </c>
-      <c r="F77" s="15">
+      <c r="G81" s="15">
         <v>2.29</v>
       </c>
-      <c r="G77" s="15">
+      <c r="H81" s="15">
         <v>2.31</v>
       </c>
-      <c r="H77" s="15">
+      <c r="I81" s="15">
         <v>2.36</v>
       </c>
-      <c r="I77" s="15">
+      <c r="J81" s="15">
         <v>2.37</v>
       </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-    </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="35">
+        <v>4.66</v>
+      </c>
+      <c r="O81" s="35">
+        <v>5.96</v>
+      </c>
+      <c r="P81" s="35">
+        <v>2.84</v>
+      </c>
+      <c r="Q81" s="35">
+        <v>2.74</v>
+      </c>
+      <c r="R81" s="35">
+        <v>6.8</v>
+      </c>
+      <c r="S81" s="34"/>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="13">
+      <c r="B82" s="34"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="13">
         <v>195.43</v>
       </c>
-      <c r="D78" s="13">
+      <c r="E82" s="13">
         <v>168.04</v>
       </c>
-      <c r="E78" s="13">
+      <c r="F82" s="13">
         <v>167.46</v>
       </c>
-      <c r="F78" s="13">
+      <c r="G82" s="13">
         <v>159.65</v>
       </c>
-      <c r="G78" s="13">
+      <c r="H82" s="13">
         <v>158.49</v>
       </c>
-      <c r="H78" s="13">
+      <c r="I82" s="13">
         <v>155.38</v>
       </c>
-      <c r="I78" s="13">
+      <c r="J82" s="13">
         <v>154.36000000000001</v>
       </c>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="35">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="O82" s="35">
+        <v>61.45</v>
+      </c>
+      <c r="P82" s="33">
+        <v>129</v>
+      </c>
+      <c r="Q82" s="33">
+        <v>133.34</v>
+      </c>
+      <c r="R82" s="35">
+        <v>53.8</v>
+      </c>
+      <c r="S82" s="34"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="15">
+      <c r="B83" s="34"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15">
         <v>0.06</v>
       </c>
-      <c r="D79" s="15">
+      <c r="E83" s="15">
         <v>0.08</v>
       </c>
-      <c r="E79" s="15">
+      <c r="F83" s="15">
         <v>0.06</v>
       </c>
-      <c r="F79" s="15">
+      <c r="G83" s="15">
         <v>0.09</v>
       </c>
-      <c r="G79" s="15">
+      <c r="H83" s="15">
         <v>0.1</v>
       </c>
-      <c r="H79" s="15">
+      <c r="I83" s="15">
         <v>0.12</v>
       </c>
-      <c r="I79" s="15">
+      <c r="J83" s="15">
         <v>0.12</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-    </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="35">
+        <v>0.04</v>
+      </c>
+      <c r="O83" s="35">
+        <v>0.11</v>
+      </c>
+      <c r="P83" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q83" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="R83" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S83" s="34"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="13">
+      <c r="B84" s="34"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13">
         <v>5654</v>
       </c>
-      <c r="D80" s="13">
+      <c r="E84" s="13">
         <v>4450.99</v>
       </c>
-      <c r="E80" s="13">
+      <c r="F84" s="13">
         <v>5969.59</v>
       </c>
-      <c r="F80" s="13">
+      <c r="G84" s="13">
         <v>4129.41</v>
       </c>
-      <c r="G80" s="13">
+      <c r="H84" s="13">
         <v>3588.7</v>
       </c>
-      <c r="H80" s="13">
+      <c r="I84" s="13">
         <v>2981.28</v>
       </c>
-      <c r="I80" s="13">
+      <c r="J84" s="13">
         <v>2995.12</v>
       </c>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33">
+        <v>8816.91</v>
+      </c>
+      <c r="O84" s="33">
+        <v>3283.6</v>
+      </c>
+      <c r="P84" s="33">
+        <v>5614.66</v>
+      </c>
+      <c r="Q84" s="33">
+        <v>6945.1</v>
+      </c>
+      <c r="R84" s="33">
+        <v>5371.81</v>
+      </c>
+      <c r="S84" s="34"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="19">
+      <c r="B85" s="34"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="19">
         <v>-5458.57</v>
       </c>
-      <c r="D81" s="19">
+      <c r="E85" s="19">
         <v>-4282.95</v>
       </c>
-      <c r="E81" s="19">
+      <c r="F85" s="19">
         <v>-5802.13</v>
       </c>
-      <c r="F81" s="19">
+      <c r="G85" s="19">
         <v>-3969.76</v>
       </c>
-      <c r="G81" s="19">
+      <c r="H85" s="19">
         <v>-3430.21</v>
       </c>
-      <c r="H81" s="19">
+      <c r="I85" s="19">
         <v>-2825.9</v>
       </c>
-      <c r="I81" s="19">
+      <c r="J85" s="19">
         <v>-2840.76</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="19">
+        <v>-8738.3700000000008</v>
+      </c>
+      <c r="O85" s="19">
+        <v>-3222.15</v>
+      </c>
+      <c r="P85" s="19">
+        <v>-5485.67</v>
+      </c>
+      <c r="Q85" s="19">
+        <v>-6811.76</v>
+      </c>
+      <c r="R85" s="19">
+        <v>-5318.01</v>
+      </c>
+      <c r="S85" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B11"/>
     <mergeCell ref="C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B12"/>
-    <mergeCell ref="B13"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="C12"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
@@ -3682,6 +5183,8 @@
     <mergeCell ref="J13"/>
     <mergeCell ref="K12"/>
     <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -3695,8 +5198,8 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -3792,22 +5295,22 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3815,22 +5318,22 @@
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>44286</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>44104</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="31">
         <v>43921</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>43738</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="31">
         <v>43555</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="31">
         <v>43373</v>
       </c>
     </row>
@@ -3838,22 +5341,22 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4765,10 +6268,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -4777,7 +6282,7 @@
     <col min="2" max="10" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -4791,7 +6296,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -4799,7 +6304,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -4807,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -4815,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -4823,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -4831,7 +6336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4839,7 +6344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +6352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -4855,7 +6360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -4863,103 +6368,157 @@
         <v>44954.495352233796</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="O11" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="P11" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>44104</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>43921</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="31">
         <v>43738</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>43555</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="31">
         <v>43373</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="31">
         <v>43190</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="31">
         <v>43008</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="31">
         <v>42825</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="31">
         <v>42643</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="30">
+        <v>42004</v>
+      </c>
+      <c r="L12" s="30">
+        <v>41639</v>
+      </c>
+      <c r="M12" s="30">
+        <v>41274</v>
+      </c>
+      <c r="N12" s="30">
+        <v>40908</v>
+      </c>
+      <c r="O12" s="30">
+        <v>40543</v>
+      </c>
+      <c r="P12" s="30">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -4972,8 +6531,14 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -5004,8 +6569,26 @@
       <c r="J15" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>137</v>
       </c>
@@ -5019,7 +6602,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>45</v>
       </c>
@@ -5050,8 +6633,26 @@
       <c r="J17" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>18.7</v>
+      </c>
+      <c r="L17">
+        <v>17.5</v>
+      </c>
+      <c r="M17">
+        <v>17.7</v>
+      </c>
+      <c r="N17">
+        <v>56.9</v>
+      </c>
+      <c r="O17">
+        <v>15.3</v>
+      </c>
+      <c r="P17">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
@@ -5082,8 +6683,26 @@
       <c r="J18" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>18.7</v>
+      </c>
+      <c r="L18">
+        <v>17.5</v>
+      </c>
+      <c r="M18">
+        <v>17.7</v>
+      </c>
+      <c r="N18">
+        <v>11.9</v>
+      </c>
+      <c r="O18">
+        <v>0.3</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>138</v>
       </c>
@@ -5114,8 +6733,26 @@
       <c r="J19" s="13">
         <v>273</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="L19">
+        <v>96.6</v>
+      </c>
+      <c r="M19">
+        <v>90.5</v>
+      </c>
+      <c r="N19">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="O19">
+        <v>61</v>
+      </c>
+      <c r="P19">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>139</v>
       </c>
@@ -5146,8 +6783,26 @@
       <c r="J20" s="13">
         <v>273</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="L20">
+        <v>96.6</v>
+      </c>
+      <c r="M20">
+        <v>90.5</v>
+      </c>
+      <c r="N20">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="O20">
+        <v>61</v>
+      </c>
+      <c r="P20">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>140</v>
       </c>
@@ -5178,8 +6833,26 @@
       <c r="J21" s="21">
         <v>278.89999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="38">
+        <v>175.4</v>
+      </c>
+      <c r="L21" s="38">
+        <v>114.1</v>
+      </c>
+      <c r="M21" s="38">
+        <v>108.2</v>
+      </c>
+      <c r="N21" s="38">
+        <v>334.5</v>
+      </c>
+      <c r="O21" s="39">
+        <v>76.3</v>
+      </c>
+      <c r="P21" s="38">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>141</v>
       </c>
@@ -5193,7 +6866,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -5224,8 +6897,26 @@
       <c r="J23" s="13">
         <v>4456</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>3150.2</v>
+      </c>
+      <c r="L23">
+        <v>2959.5</v>
+      </c>
+      <c r="M23">
+        <v>2755.7</v>
+      </c>
+      <c r="N23">
+        <v>2583.1</v>
+      </c>
+      <c r="O23">
+        <v>2398.9</v>
+      </c>
+      <c r="P23">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>143</v>
       </c>
@@ -5241,7 +6932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>144</v>
       </c>
@@ -5257,7 +6948,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>145</v>
       </c>
@@ -5289,7 +6980,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23" t="s">
         <v>146</v>
       </c>
@@ -5321,7 +7012,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>147</v>
       </c>
@@ -5353,7 +7044,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>148</v>
       </c>
@@ -5384,8 +7075,26 @@
       <c r="J29" s="21">
         <v>4499.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="38">
+        <v>3346.2</v>
+      </c>
+      <c r="L29" s="38">
+        <v>3119.9</v>
+      </c>
+      <c r="M29" s="38">
+        <v>2959.3</v>
+      </c>
+      <c r="N29" s="38">
+        <v>2583.1</v>
+      </c>
+      <c r="O29" s="38">
+        <v>2398.9</v>
+      </c>
+      <c r="P29" s="38">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
@@ -5399,7 +7108,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
@@ -5430,8 +7139,26 @@
       <c r="J31" s="21">
         <v>4778.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="38">
+        <v>3521.6</v>
+      </c>
+      <c r="L31" s="38">
+        <v>3234</v>
+      </c>
+      <c r="M31" s="38">
+        <v>3067.5</v>
+      </c>
+      <c r="N31" s="38">
+        <v>2917.6</v>
+      </c>
+      <c r="O31" s="38">
+        <v>2475.1999999999998</v>
+      </c>
+      <c r="P31" s="38">
+        <v>2439.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>149</v>
       </c>
@@ -5445,7 +7172,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>150</v>
       </c>
@@ -5476,8 +7203,26 @@
       <c r="J33" s="13">
         <v>247.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="33">
+        <v>358.3</v>
+      </c>
+      <c r="L33" s="33">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="M33" s="33">
+        <v>225.1</v>
+      </c>
+      <c r="N33" s="33">
+        <v>477.5</v>
+      </c>
+      <c r="O33" s="33">
+        <v>224.6</v>
+      </c>
+      <c r="P33" s="33">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23" t="s">
         <v>151</v>
       </c>
@@ -5508,8 +7253,26 @@
       <c r="J34" s="13">
         <v>247.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="33">
+        <v>358.3</v>
+      </c>
+      <c r="L34" s="33">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="M34" s="33">
+        <v>225.1</v>
+      </c>
+      <c r="N34" s="33">
+        <v>477.5</v>
+      </c>
+      <c r="O34" s="33">
+        <v>224.6</v>
+      </c>
+      <c r="P34" s="33">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>152</v>
       </c>
@@ -5525,7 +7288,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23" t="s">
         <v>153</v>
       </c>
@@ -5541,7 +7304,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>154</v>
       </c>
@@ -5557,7 +7320,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>155</v>
       </c>
@@ -5588,8 +7351,26 @@
       <c r="J38" s="21">
         <v>247.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="38">
+        <v>358.3</v>
+      </c>
+      <c r="L38" s="38">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="M38" s="38">
+        <v>225.1</v>
+      </c>
+      <c r="N38" s="38">
+        <v>477.5</v>
+      </c>
+      <c r="O38" s="38">
+        <v>224.6</v>
+      </c>
+      <c r="P38" s="38">
+        <v>198.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>156</v>
       </c>
@@ -5603,7 +7384,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>157</v>
       </c>
@@ -5634,8 +7415,26 @@
       <c r="J40" s="13">
         <v>2992.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K40" s="33">
+        <v>1770</v>
+      </c>
+      <c r="L40" s="33">
+        <v>1575.7</v>
+      </c>
+      <c r="M40" s="33">
+        <v>1586.3</v>
+      </c>
+      <c r="N40" s="33">
+        <v>1305.7</v>
+      </c>
+      <c r="O40" s="33">
+        <v>1090.4000000000001</v>
+      </c>
+      <c r="P40" s="33">
+        <v>1089.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>158</v>
       </c>
@@ -5666,8 +7465,26 @@
       <c r="J41" s="13">
         <v>2992.9</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="33">
+        <v>1770</v>
+      </c>
+      <c r="L41" s="33">
+        <v>1575.7</v>
+      </c>
+      <c r="M41" s="33">
+        <v>1586.3</v>
+      </c>
+      <c r="N41" s="33">
+        <v>1305.7</v>
+      </c>
+      <c r="O41" s="33">
+        <v>1090.4000000000001</v>
+      </c>
+      <c r="P41" s="33">
+        <v>1089.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>159</v>
       </c>
@@ -5697,7 +7514,7 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23" t="s">
         <v>160</v>
       </c>
@@ -5727,7 +7544,7 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>161</v>
       </c>
@@ -5757,7 +7574,7 @@
       </c>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>162</v>
       </c>
@@ -5788,8 +7605,26 @@
       <c r="J45" s="13">
         <v>281.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="L45">
+        <v>295.5</v>
+      </c>
+      <c r="M45">
+        <v>312.5</v>
+      </c>
+      <c r="N45">
+        <v>326</v>
+      </c>
+      <c r="O45">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="P45">
+        <v>341.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23" t="s">
         <v>163</v>
       </c>
@@ -5821,7 +7656,7 @@
         <v>281.2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>164</v>
       </c>
@@ -5852,8 +7687,26 @@
       <c r="J47" s="13">
         <v>3274.1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K47" s="33">
+        <v>2045.6</v>
+      </c>
+      <c r="L47" s="33">
+        <v>1871.2</v>
+      </c>
+      <c r="M47" s="33">
+        <v>1898.8</v>
+      </c>
+      <c r="N47" s="33">
+        <v>1631.7</v>
+      </c>
+      <c r="O47" s="33">
+        <v>1414.3</v>
+      </c>
+      <c r="P47" s="33">
+        <v>1431.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>165</v>
       </c>
@@ -5867,7 +7720,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>165</v>
       </c>
@@ -5898,8 +7751,26 @@
       <c r="J49" s="21">
         <v>3521.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K49" s="38">
+        <v>2403.9</v>
+      </c>
+      <c r="L49" s="38">
+        <v>2182.6</v>
+      </c>
+      <c r="M49" s="38">
+        <v>2123.9</v>
+      </c>
+      <c r="N49" s="38">
+        <v>2109.1999999999998</v>
+      </c>
+      <c r="O49" s="38">
+        <v>1638.9</v>
+      </c>
+      <c r="P49" s="38">
+        <v>1629.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>166</v>
       </c>
@@ -5913,7 +7784,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>167</v>
       </c>
@@ -5944,8 +7815,26 @@
       <c r="J51" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L51" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M51" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N51" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O51" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P51" s="33">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23" t="s">
         <v>168</v>
       </c>
@@ -5976,8 +7865,26 @@
       <c r="J52" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K52" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L52" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M52" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N52" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O52" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P52" s="33">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>169</v>
       </c>
@@ -6008,8 +7915,26 @@
       <c r="J53" s="13">
         <v>131.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K53" s="33">
+        <v>131.4</v>
+      </c>
+      <c r="L53" s="33">
+        <v>131.4</v>
+      </c>
+      <c r="M53" s="33">
+        <v>131.4</v>
+      </c>
+      <c r="N53" s="33">
+        <v>131.4</v>
+      </c>
+      <c r="O53" s="33">
+        <v>131.4</v>
+      </c>
+      <c r="P53" s="33">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
         <v>170</v>
       </c>
@@ -6040,8 +7965,26 @@
       <c r="J54" s="13">
         <v>125.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K54" s="33">
+        <v>125.8</v>
+      </c>
+      <c r="L54" s="33">
+        <v>125.8</v>
+      </c>
+      <c r="M54" s="33">
+        <v>125.8</v>
+      </c>
+      <c r="N54" s="33">
+        <v>125.8</v>
+      </c>
+      <c r="O54" s="33">
+        <v>125.8</v>
+      </c>
+      <c r="P54" s="33">
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
         <v>171</v>
       </c>
@@ -6072,8 +8015,26 @@
       <c r="J55" s="15">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K55" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="L55" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="M55" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="N55" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="O55" s="35">
+        <v>5.6</v>
+      </c>
+      <c r="P55" s="35">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>172</v>
       </c>
@@ -6104,8 +8065,26 @@
       <c r="J56" s="13">
         <v>1126</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K56" s="33">
+        <v>986.3</v>
+      </c>
+      <c r="L56" s="33">
+        <v>920</v>
+      </c>
+      <c r="M56" s="33">
+        <v>812.2</v>
+      </c>
+      <c r="N56" s="33">
+        <v>677</v>
+      </c>
+      <c r="O56" s="33">
+        <v>704.9</v>
+      </c>
+      <c r="P56" s="33">
+        <v>678.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
         <v>173</v>
       </c>
@@ -6136,8 +8115,26 @@
       <c r="J57" s="13">
         <v>1126.4000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K57" s="33">
+        <v>992.5</v>
+      </c>
+      <c r="L57" s="33">
+        <v>928.8</v>
+      </c>
+      <c r="M57" s="33">
+        <v>823.1</v>
+      </c>
+      <c r="N57" s="33">
+        <v>690.1</v>
+      </c>
+      <c r="O57" s="33">
+        <v>704.9</v>
+      </c>
+      <c r="P57" s="33">
+        <v>678.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
         <v>174</v>
       </c>
@@ -6168,212 +8165,284 @@
       <c r="J58" s="16">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
+      <c r="K58" s="16">
+        <v>-6.2</v>
+      </c>
+      <c r="L58" s="16">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="M58" s="16">
+        <v>-10.9</v>
+      </c>
+      <c r="N58" s="16">
+        <v>-13.1</v>
+      </c>
+      <c r="O58" s="34">
+        <v>0</v>
+      </c>
+      <c r="P58" s="34"/>
+    </row>
+    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16">
+        <v>-6.2</v>
+      </c>
+      <c r="L59" s="16">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="M59" s="16">
+        <v>-10.9</v>
+      </c>
+      <c r="N59" s="16">
+        <v>-13.1</v>
+      </c>
+      <c r="O59" s="34">
+        <v>0</v>
+      </c>
+      <c r="P59" s="34"/>
+    </row>
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B60" s="16">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C60" s="16">
         <v>-3.1</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <v>-3.2</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E60" s="16">
         <v>-1.5</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F60" s="16">
         <v>-1.5</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>0</v>
       </c>
-      <c r="I59" s="16">
+      <c r="I60" s="16">
         <v>-0.4</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J60" s="16">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+    </row>
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B61" s="13">
         <v>1522</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C61" s="13">
         <v>1573.5</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <v>1451</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>1431.1</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>1423.9</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G61" s="13">
         <v>1350.1</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H61" s="13">
         <v>1284.8</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I61" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J61" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="K61" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L61" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M61" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N61" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O61" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P61" s="33">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B63" s="21">
         <v>1522</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C63" s="21">
         <v>1573.5</v>
       </c>
-      <c r="D62" s="21">
+      <c r="D63" s="21">
         <v>1451</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E63" s="21">
         <v>1431.1</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F63" s="21">
         <v>1423.9</v>
       </c>
-      <c r="G62" s="21">
+      <c r="G63" s="21">
         <v>1350.1</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H63" s="21">
         <v>1284.8</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I63" s="21">
         <v>1257.4000000000001</v>
       </c>
-      <c r="J62" s="21">
+      <c r="J63" s="21">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="K63" s="38">
+        <v>1117.7</v>
+      </c>
+      <c r="L63" s="38">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M63" s="38">
+        <v>943.6</v>
+      </c>
+      <c r="N63" s="38">
+        <v>808.4</v>
+      </c>
+      <c r="O63" s="38">
+        <v>836.3</v>
+      </c>
+      <c r="P63" s="38">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="20" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B65" s="21">
         <v>5891.1</v>
       </c>
-      <c r="C64" s="21">
+      <c r="C65" s="21">
         <v>5519</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="21">
         <v>5335.4</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E65" s="21">
         <v>5194.1000000000004</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F65" s="21">
         <v>5147.7</v>
       </c>
-      <c r="G64" s="21">
+      <c r="G65" s="21">
         <v>4975.2</v>
       </c>
-      <c r="H64" s="21">
+      <c r="H65" s="21">
         <v>4860.1000000000004</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I65" s="21">
         <v>4778.7</v>
       </c>
-      <c r="J64" s="21">
+      <c r="J65" s="21">
         <v>4778.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="K65" s="38">
+        <v>3521.6</v>
+      </c>
+      <c r="L65" s="38">
+        <v>3234</v>
+      </c>
+      <c r="M65" s="38">
+        <v>3067.5</v>
+      </c>
+      <c r="N65" s="38">
+        <v>2917.6</v>
+      </c>
+      <c r="O65" s="38">
+        <v>2475.1999999999998</v>
+      </c>
+      <c r="P65" s="38">
+        <v>2439.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-    </row>
-    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="B66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="C66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="D66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="E66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="F66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="G66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="H66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="I66" s="13">
-        <v>251.51</v>
-      </c>
-      <c r="J66" s="13">
-        <v>251.51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
-        <v>68</v>
       </c>
       <c r="B67" s="13">
         <v>251.51</v>
@@ -6402,184 +8471,304 @@
       <c r="J67" s="13">
         <v>251.51</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K67" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="L67" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="M67" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N67" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="O67" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="P67" s="33">
+        <v>251.51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="C68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="D68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="E68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="F68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="G68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="H68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="I68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="J68" s="13">
+        <v>251.51</v>
+      </c>
+      <c r="K68" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="L68" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="M68" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N68" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="O68" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="P68" s="33">
+        <v>251.51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B69" s="14">
         <v>0</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C69" s="14">
         <v>0</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <v>0</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E69" s="14">
         <v>0</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F69" s="14">
         <v>0</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>0</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H69" s="14">
         <v>0</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I69" s="14">
         <v>0</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J69" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="K69" s="34">
+        <v>0</v>
+      </c>
+      <c r="L69" s="34">
+        <v>0</v>
+      </c>
+      <c r="M69" s="34">
+        <v>0</v>
+      </c>
+      <c r="N69" s="34">
+        <v>0</v>
+      </c>
+      <c r="O69" s="34">
+        <v>0</v>
+      </c>
+      <c r="P69" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="33">
+        <v>400</v>
+      </c>
+      <c r="L70" s="33">
+        <v>400</v>
+      </c>
+      <c r="M70" s="33">
+        <v>400</v>
+      </c>
+      <c r="N70" s="34"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+    </row>
+    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="13">
+      <c r="B71" s="13">
         <v>251.51</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C71" s="13">
         <v>251.51</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D71" s="13">
         <v>251.51</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E71" s="13">
         <v>251.51</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F71" s="13">
         <v>251.51</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G71" s="13">
         <v>251.51</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H71" s="13">
         <v>251.51</v>
       </c>
-      <c r="I69" s="13">
+      <c r="I71" s="13">
         <v>251.51</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J71" s="13">
         <v>251.51</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="K71" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="L71" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="M71" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N71" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="O71" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="P71" s="33">
+        <v>251.51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B70" s="13">
+      <c r="B72" s="13">
         <v>251.51</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C72" s="13">
         <v>251.51</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D72" s="13">
         <v>251.51</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E72" s="13">
         <v>251.51</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F72" s="13">
         <v>251.51</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G72" s="13">
         <v>251.51</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H72" s="13">
         <v>251.51</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I72" s="13">
         <v>251.51</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J72" s="13">
         <v>251.51</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
+      <c r="K72" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="L72" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="M72" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="N72" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="O72" s="33">
+        <v>251.51</v>
+      </c>
+      <c r="P72" s="33">
+        <v>251.51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B73" s="14">
         <v>0</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C73" s="14">
         <v>0</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D73" s="14">
         <v>0</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F73" s="14">
         <v>0</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G73" s="14">
         <v>0</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H73" s="14">
         <v>0</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I73" s="14">
         <v>0</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J73" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="K73" s="34">
+        <v>0</v>
+      </c>
+      <c r="L73" s="34">
+        <v>0</v>
+      </c>
+      <c r="M73" s="34">
+        <v>0</v>
+      </c>
+      <c r="N73" s="34">
+        <v>0</v>
+      </c>
+      <c r="O73" s="34">
+        <v>0</v>
+      </c>
+      <c r="P73" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-    </row>
-    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" s="15">
-        <v>1</v>
-      </c>
-      <c r="C73" s="15">
-        <v>1</v>
-      </c>
-      <c r="D73" s="15">
-        <v>1</v>
-      </c>
-      <c r="E73" s="15">
-        <v>1</v>
-      </c>
-      <c r="F73" s="15">
-        <v>1</v>
-      </c>
-      <c r="G73" s="15">
-        <v>1</v>
-      </c>
-      <c r="H73" s="15">
-        <v>1</v>
-      </c>
-      <c r="I73" s="15">
-        <v>1</v>
-      </c>
-      <c r="J73" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -6590,40 +8779,48 @@
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
-    </row>
-    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" s="13">
-        <v>1843.6</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1944.4</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1707.9</v>
-      </c>
-      <c r="E75" s="13">
-        <v>1701.1</v>
-      </c>
-      <c r="F75" s="13">
-        <v>1777.3</v>
-      </c>
-      <c r="G75" s="13">
-        <v>1749</v>
-      </c>
-      <c r="H75" s="13">
-        <v>1721.6</v>
-      </c>
-      <c r="I75" s="13">
-        <v>1703.5</v>
-      </c>
-      <c r="J75" s="14"/>
-    </row>
-    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="B75" s="15">
+        <v>1</v>
+      </c>
+      <c r="C75" s="15">
+        <v>1</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <v>1</v>
+      </c>
+      <c r="F75" s="15">
+        <v>1</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1</v>
+      </c>
+      <c r="H75" s="15">
+        <v>1</v>
+      </c>
+      <c r="I75" s="15">
+        <v>1</v>
+      </c>
+      <c r="J75" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -6635,718 +8832,1204 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1843.6</v>
+      </c>
+      <c r="C77" s="13">
+        <v>1944.4</v>
+      </c>
+      <c r="D77" s="13">
+        <v>1707.9</v>
+      </c>
+      <c r="E77" s="13">
+        <v>1701.1</v>
+      </c>
+      <c r="F77" s="13">
+        <v>1777.3</v>
+      </c>
+      <c r="G77" s="13">
+        <v>1749</v>
+      </c>
+      <c r="H77" s="13">
+        <v>1721.6</v>
+      </c>
+      <c r="I77" s="13">
+        <v>1703.5</v>
+      </c>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34">
+        <v>0</v>
+      </c>
+      <c r="N79" s="35">
+        <v>45</v>
+      </c>
+      <c r="O79" s="35">
+        <v>15</v>
+      </c>
+      <c r="P79" s="33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B80" s="13">
         <v>395.4</v>
       </c>
-      <c r="C77" s="13">
+      <c r="C80" s="13">
         <v>325.8</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D80" s="13">
         <v>299.7</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E80" s="13">
         <v>273</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F80" s="13">
         <v>286.5</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G80" s="13">
         <v>272.60000000000002</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H80" s="13">
         <v>263.89999999999998</v>
       </c>
-      <c r="I77" s="13">
+      <c r="I80" s="13">
         <v>273</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J80" s="13">
         <v>273</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="K80" s="33">
+        <v>352.7</v>
+      </c>
+      <c r="L80" s="33">
+        <v>257</v>
+      </c>
+      <c r="M80" s="33">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="N80" s="33">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="O80" s="35">
+        <v>61</v>
+      </c>
+      <c r="P80" s="35">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="33"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="33"/>
+      <c r="P81" s="33"/>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B79" s="13">
+      <c r="B82" s="13">
         <v>2238.1999999999998</v>
       </c>
-      <c r="C79" s="13">
+      <c r="C82" s="13">
         <v>1755.7</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D82" s="13">
         <v>1950.5</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E82" s="13">
         <v>1831.6</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F82" s="13">
         <v>1706.3</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G82" s="13">
         <v>1601.6</v>
       </c>
-      <c r="H79" s="13">
+      <c r="H82" s="13">
         <v>1569.6</v>
       </c>
-      <c r="I79" s="13">
+      <c r="I82" s="13">
         <v>1536.6</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J82" s="13">
         <v>3240.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+      <c r="K82" s="33">
+        <v>2128.3000000000002</v>
+      </c>
+      <c r="L82" s="33">
+        <v>1887.1</v>
+      </c>
+      <c r="M82" s="33">
+        <v>1811.4</v>
+      </c>
+      <c r="N82" s="33">
+        <v>1783.2</v>
+      </c>
+      <c r="O82" s="33">
+        <v>1315</v>
+      </c>
+      <c r="P82" s="33">
+        <v>1287.9000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="B80" s="13">
+      <c r="B83" s="13">
         <v>2238.1999999999998</v>
       </c>
-      <c r="C80" s="13">
+      <c r="C83" s="13">
         <v>1755.7</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D83" s="13">
         <v>1950.5</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E83" s="13">
         <v>1831.6</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F83" s="13">
         <v>1706.3</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G83" s="13">
         <v>1601.6</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H83" s="13">
         <v>1569.6</v>
       </c>
-      <c r="I80" s="13">
+      <c r="I83" s="13">
         <v>1536.6</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J83" s="13">
         <v>3240.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+      <c r="K83" s="33">
+        <v>2128.3000000000002</v>
+      </c>
+      <c r="L83" s="33">
+        <v>1887.1</v>
+      </c>
+      <c r="M83" s="33">
+        <v>1811.4</v>
+      </c>
+      <c r="N83" s="33">
+        <v>1783.2</v>
+      </c>
+      <c r="O83" s="33">
+        <v>1315</v>
+      </c>
+      <c r="P83" s="33">
+        <v>1287.9000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="13">
+      <c r="B85" s="13">
         <v>1578.9</v>
       </c>
-      <c r="C82" s="13">
+      <c r="C85" s="13">
         <v>1899.4</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D85" s="13">
         <v>1704.4</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E85" s="13">
         <v>1698.1</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F85" s="13">
         <v>1711.9</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G85" s="13">
         <v>1741.6</v>
       </c>
-      <c r="H82" s="13">
+      <c r="H85" s="13">
         <v>1717.9</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I85" s="13">
         <v>1697.6</v>
       </c>
-      <c r="J82" s="16">
+      <c r="J85" s="16">
         <v>-5.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="K85" s="16">
+        <v>-18.7</v>
+      </c>
+      <c r="L85" s="16">
+        <v>-17.5</v>
+      </c>
+      <c r="M85" s="16">
+        <v>-17.7</v>
+      </c>
+      <c r="N85" s="16">
+        <v>-56.9</v>
+      </c>
+      <c r="O85" s="16">
+        <v>-15.3</v>
+      </c>
+      <c r="P85" s="19">
+        <v>-124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B87" s="19">
         <v>-307.7</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C87" s="15">
         <v>53.1</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D87" s="19">
         <v>-128</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E87" s="19">
         <v>-118.3</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F87" s="16">
         <v>-42.6</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G87" s="15">
         <v>5</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H87" s="16">
         <v>-29.5</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I87" s="15">
         <v>25.8</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J87" s="15">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="K87" s="19">
+        <v>-201.6</v>
+      </c>
+      <c r="L87" s="19">
+        <v>-214.8</v>
+      </c>
+      <c r="M87" s="19">
+        <v>-134.6</v>
+      </c>
+      <c r="N87" s="19">
+        <v>-154.9</v>
+      </c>
+      <c r="O87" s="19">
+        <v>-148.6</v>
+      </c>
+      <c r="P87" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="13">
+      <c r="B88" s="13">
         <v>5626.4</v>
       </c>
-      <c r="C85" s="13">
+      <c r="C88" s="13">
         <v>5474</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D88" s="13">
         <v>5331.9</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E88" s="13">
         <v>5191.1000000000004</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F88" s="13">
         <v>5082.3</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G88" s="13">
         <v>4967.8</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H88" s="13">
         <v>4856.3999999999996</v>
       </c>
-      <c r="I85" s="13">
+      <c r="I88" s="13">
         <v>4772.8</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J88" s="13">
         <v>4772.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="K88" s="33">
+        <v>3306.9</v>
+      </c>
+      <c r="L88" s="33">
+        <v>3056.1</v>
+      </c>
+      <c r="M88" s="33">
+        <v>2846.2</v>
+      </c>
+      <c r="N88" s="33">
+        <v>2905.7</v>
+      </c>
+      <c r="O88" s="33">
+        <v>2474.9</v>
+      </c>
+      <c r="P88" s="33">
+        <v>2439.5</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="13">
+      <c r="B89" s="13">
         <v>264.7</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C89" s="15">
         <v>45</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D89" s="15">
         <v>3.5</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E89" s="15">
         <v>3</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F89" s="15">
         <v>65.400000000000006</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G89" s="15">
         <v>7.4</v>
       </c>
-      <c r="H86" s="15">
+      <c r="H89" s="15">
         <v>3.7</v>
       </c>
-      <c r="I86" s="15">
+      <c r="I89" s="15">
         <v>5.9</v>
       </c>
-      <c r="J86" s="15">
+      <c r="J89" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="K89" s="35">
+        <v>18.7</v>
+      </c>
+      <c r="L89" s="35">
+        <v>17.5</v>
+      </c>
+      <c r="M89" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="N89" s="35">
+        <v>11.9</v>
+      </c>
+      <c r="O89" s="35">
+        <v>0.3</v>
+      </c>
+      <c r="P89" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B90" s="13">
         <v>264.7</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C90" s="15">
         <v>45</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D90" s="15">
         <v>3.5</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E90" s="15">
         <v>3</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F90" s="15">
         <v>65.400000000000006</v>
       </c>
-      <c r="G87" s="15">
+      <c r="G90" s="15">
         <v>7.4</v>
       </c>
-      <c r="H87" s="15">
+      <c r="H90" s="15">
         <v>3.7</v>
       </c>
-      <c r="I87" s="15">
+      <c r="I90" s="15">
         <v>5.9</v>
       </c>
-      <c r="J87" s="15">
+      <c r="J90" s="15">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+      <c r="K90" s="35">
+        <v>18.7</v>
+      </c>
+      <c r="L90" s="35">
+        <v>17.5</v>
+      </c>
+      <c r="M90" s="35">
+        <v>17.7</v>
+      </c>
+      <c r="N90" s="35">
+        <v>56.9</v>
+      </c>
+      <c r="O90" s="35">
+        <v>15.3</v>
+      </c>
+      <c r="P90" s="33">
+        <v>124</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B88" s="13">
+      <c r="B91" s="13">
         <v>1843.6</v>
       </c>
-      <c r="C88" s="13">
+      <c r="C91" s="13">
         <v>1944.4</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D91" s="13">
         <v>1707.9</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E91" s="13">
         <v>1701.1</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F91" s="13">
         <v>1777.3</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G91" s="13">
         <v>1749</v>
       </c>
-      <c r="H88" s="13">
+      <c r="H91" s="13">
         <v>1721.6</v>
       </c>
-      <c r="I88" s="13">
+      <c r="I91" s="13">
         <v>1703.5</v>
       </c>
-      <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="J91" s="14"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="34"/>
+      <c r="Q91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B89" s="13">
+      <c r="B92" s="13">
         <v>3100.9</v>
       </c>
-      <c r="C89" s="13">
+      <c r="C92" s="13">
         <v>3472.9</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D92" s="13">
         <v>3155.4</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E92" s="13">
         <v>3129.2</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F92" s="13">
         <v>3135.8</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G92" s="13">
         <v>3091.7</v>
       </c>
-      <c r="H89" s="13">
+      <c r="H92" s="13">
         <v>3002.7</v>
       </c>
-      <c r="I89" s="13">
+      <c r="I92" s="13">
         <v>2955</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J92" s="13">
         <v>1251.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="K92" s="33">
+        <v>1099</v>
+      </c>
+      <c r="L92" s="33">
+        <v>1033.9000000000001</v>
+      </c>
+      <c r="M92" s="33">
+        <v>925.9</v>
+      </c>
+      <c r="N92" s="33">
+        <v>751.5</v>
+      </c>
+      <c r="O92" s="33">
+        <v>821</v>
+      </c>
+      <c r="P92" s="33">
+        <v>685.7</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B90" s="13">
+      <c r="B93" s="13">
         <v>3100.9</v>
       </c>
-      <c r="C90" s="13">
+      <c r="C93" s="13">
         <v>3472.9</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D93" s="13">
         <v>3155.4</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E93" s="13">
         <v>3129.2</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F93" s="13">
         <v>3135.8</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G93" s="13">
         <v>3091.7</v>
       </c>
-      <c r="H90" s="13">
+      <c r="H93" s="13">
         <v>3002.7</v>
       </c>
-      <c r="I90" s="13">
+      <c r="I93" s="13">
         <v>2955</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J93" s="13">
         <v>1251.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+      <c r="K93" s="33">
+        <v>1099</v>
+      </c>
+      <c r="L93" s="33">
+        <v>1033.9000000000001</v>
+      </c>
+      <c r="M93" s="33">
+        <v>925.9</v>
+      </c>
+      <c r="N93" s="33">
+        <v>751.5</v>
+      </c>
+      <c r="O93" s="33">
+        <v>821</v>
+      </c>
+      <c r="P93" s="33">
+        <v>685.7</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B91" s="13">
+      <c r="B94" s="13">
         <v>287.3</v>
       </c>
-      <c r="C91" s="13">
+      <c r="C94" s="13">
         <v>245.4</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D94" s="13">
         <v>226</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E94" s="13">
         <v>230.3</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F94" s="13">
         <v>240.2</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G94" s="13">
         <v>274.5</v>
       </c>
-      <c r="H91" s="13">
+      <c r="H94" s="13">
         <v>284.10000000000002</v>
       </c>
-      <c r="I91" s="13">
+      <c r="I94" s="13">
         <v>281.2</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J94" s="13">
         <v>281.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+      <c r="K94" s="33">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="L94" s="33">
+        <v>295.5</v>
+      </c>
+      <c r="M94" s="33">
+        <v>312.5</v>
+      </c>
+      <c r="N94" s="33">
+        <v>326</v>
+      </c>
+      <c r="O94" s="33">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="P94" s="33">
+        <v>341.9</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="13">
+      <c r="B95" s="13">
         <v>1522</v>
       </c>
-      <c r="C92" s="13">
+      <c r="C95" s="13">
         <v>1573.5</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D95" s="13">
         <v>1451</v>
       </c>
-      <c r="E92" s="13">
+      <c r="E95" s="13">
         <v>1431.1</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F95" s="13">
         <v>1423.9</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G95" s="13">
         <v>1350.1</v>
       </c>
-      <c r="H92" s="13">
+      <c r="H95" s="13">
         <v>1284.8</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I95" s="13">
         <v>1257.4000000000001</v>
-      </c>
-      <c r="J92" s="13">
-        <v>1257.4000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="13">
-        <v>1485.9</v>
-      </c>
-      <c r="C93" s="13">
-        <v>1533.1</v>
-      </c>
-      <c r="D93" s="13">
-        <v>1407</v>
-      </c>
-      <c r="E93" s="13">
-        <v>1387.5</v>
-      </c>
-      <c r="F93" s="13">
-        <v>1379.5</v>
-      </c>
-      <c r="G93" s="13">
-        <v>1304.2</v>
-      </c>
-      <c r="H93" s="13">
-        <v>1240.9000000000001</v>
-      </c>
-      <c r="I93" s="13">
-        <v>1213.8</v>
-      </c>
-      <c r="J93" s="13">
-        <v>1213.8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B94" s="13">
-        <v>1485.9</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1533.1</v>
-      </c>
-      <c r="D94" s="13">
-        <v>1407</v>
-      </c>
-      <c r="E94" s="13">
-        <v>1387.5</v>
-      </c>
-      <c r="F94" s="13">
-        <v>1379.5</v>
-      </c>
-      <c r="G94" s="13">
-        <v>1304.2</v>
-      </c>
-      <c r="H94" s="13">
-        <v>1240.9000000000001</v>
-      </c>
-      <c r="I94" s="13">
-        <v>1213.8</v>
-      </c>
-      <c r="J94" s="13">
-        <v>1213.8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B95" s="13">
-        <v>3365.6</v>
-      </c>
-      <c r="C95" s="13">
-        <v>3517.9</v>
-      </c>
-      <c r="D95" s="13">
-        <v>3158.9</v>
-      </c>
-      <c r="E95" s="13">
-        <v>3132.2</v>
-      </c>
-      <c r="F95" s="13">
-        <v>3201.2</v>
-      </c>
-      <c r="G95" s="13">
-        <v>3099.1</v>
-      </c>
-      <c r="H95" s="13">
-        <v>3006.4</v>
-      </c>
-      <c r="I95" s="13">
-        <v>2960.9</v>
       </c>
       <c r="J95" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K95" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L95" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M95" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N95" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O95" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P95" s="33">
+        <v>809.7</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="13">
+        <v>1485.9</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1533.1</v>
+      </c>
+      <c r="D96" s="13">
+        <v>1407</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1387.5</v>
+      </c>
+      <c r="F96" s="13">
+        <v>1379.5</v>
+      </c>
+      <c r="G96" s="13">
+        <v>1304.2</v>
+      </c>
+      <c r="H96" s="13">
+        <v>1240.9000000000001</v>
+      </c>
+      <c r="I96" s="13">
+        <v>1213.8</v>
+      </c>
+      <c r="J96" s="13">
+        <v>1213.8</v>
+      </c>
+      <c r="K96" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L96" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M96" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N96" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O96" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P96" s="33">
+        <v>809.7</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B97" s="13">
+        <v>1485.9</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1533.1</v>
+      </c>
+      <c r="D97" s="13">
+        <v>1407</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1387.5</v>
+      </c>
+      <c r="F97" s="13">
+        <v>1379.5</v>
+      </c>
+      <c r="G97" s="13">
+        <v>1304.2</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1240.9000000000001</v>
+      </c>
+      <c r="I97" s="13">
+        <v>1213.8</v>
+      </c>
+      <c r="J97" s="13">
+        <v>1213.8</v>
+      </c>
+      <c r="K97" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L97" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M97" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N97" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O97" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P97" s="33">
+        <v>809.7</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B98" s="13">
+        <v>3365.6</v>
+      </c>
+      <c r="C98" s="13">
+        <v>3517.9</v>
+      </c>
+      <c r="D98" s="13">
+        <v>3158.9</v>
+      </c>
+      <c r="E98" s="13">
+        <v>3132.2</v>
+      </c>
+      <c r="F98" s="13">
+        <v>3201.2</v>
+      </c>
+      <c r="G98" s="13">
+        <v>3099.1</v>
+      </c>
+      <c r="H98" s="13">
+        <v>3006.4</v>
+      </c>
+      <c r="I98" s="13">
+        <v>2960.9</v>
+      </c>
+      <c r="J98" s="13">
+        <v>1257.4000000000001</v>
+      </c>
+      <c r="K98" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L98" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M98" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N98" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O98" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P98" s="33">
+        <v>809.7</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="13">
+      <c r="B99" s="13">
         <v>3365.6</v>
       </c>
-      <c r="C96" s="13">
+      <c r="C99" s="13">
         <v>3517.9</v>
       </c>
-      <c r="D96" s="13">
+      <c r="D99" s="13">
         <v>3158.9</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E99" s="13">
         <v>3132.2</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F99" s="13">
         <v>3201.2</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G99" s="13">
         <v>3099.1</v>
       </c>
-      <c r="H96" s="13">
+      <c r="H99" s="13">
         <v>3006.4</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I99" s="13">
         <v>2960.9</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J99" s="13">
         <v>1257.4000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="K99" s="33">
+        <v>1117.7</v>
+      </c>
+      <c r="L99" s="33">
+        <v>1051.4000000000001</v>
+      </c>
+      <c r="M99" s="33">
+        <v>943.6</v>
+      </c>
+      <c r="N99" s="33">
+        <v>808.4</v>
+      </c>
+      <c r="O99" s="33">
+        <v>836.3</v>
+      </c>
+      <c r="P99" s="33">
+        <v>809.7</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B97" s="13">
+      <c r="B100" s="13">
         <v>5188</v>
       </c>
-      <c r="C97" s="13">
+      <c r="C100" s="13">
         <v>5246.3</v>
       </c>
-      <c r="D97" s="13">
+      <c r="D100" s="13">
         <v>4907.7</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E100" s="13">
         <v>4802.8</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F100" s="13">
         <v>4818.6000000000004</v>
       </c>
-      <c r="G97" s="13">
+      <c r="G100" s="13">
         <v>4707.6000000000004</v>
       </c>
-      <c r="H97" s="13">
+      <c r="H100" s="13">
         <v>4566.7</v>
       </c>
-      <c r="I97" s="13">
+      <c r="I100" s="13">
         <v>4531.5</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J100" s="13">
         <v>4531.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="K100" s="33">
+        <v>3163.3</v>
+      </c>
+      <c r="L100" s="33">
+        <v>2922.6</v>
+      </c>
+      <c r="M100" s="33">
+        <v>2842.4</v>
+      </c>
+      <c r="N100" s="33">
+        <v>2440.1</v>
+      </c>
+      <c r="O100" s="33">
+        <v>2250.6</v>
+      </c>
+      <c r="P100" s="33">
+        <v>2241.4</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="13">
+      <c r="B101" s="13">
         <v>5231</v>
       </c>
-      <c r="C98" s="13">
+      <c r="C101" s="13">
         <v>5148.2</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D101" s="13">
         <v>5032.2</v>
       </c>
-      <c r="E98" s="13">
+      <c r="E101" s="13">
         <v>4918.1000000000004</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F101" s="13">
         <v>4795.8</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G101" s="13">
         <v>4695.2</v>
       </c>
-      <c r="H98" s="13">
+      <c r="H101" s="13">
         <v>4592.5</v>
       </c>
-      <c r="I98" s="13">
+      <c r="I101" s="13">
         <v>4499.8</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J101" s="13">
         <v>4499.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+      <c r="K101" s="33">
+        <v>3150.2</v>
+      </c>
+      <c r="L101" s="33">
+        <v>2959.5</v>
+      </c>
+      <c r="M101" s="33">
+        <v>2755.7</v>
+      </c>
+      <c r="N101" s="33">
+        <v>2583.1</v>
+      </c>
+      <c r="O101" s="33">
+        <v>2398.9</v>
+      </c>
+      <c r="P101" s="33">
+        <v>2247</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B102" s="16">
         <v>-43</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C102" s="15">
         <v>98.1</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D102" s="19">
         <v>-124.5</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E102" s="19">
         <v>-115.3</v>
       </c>
-      <c r="F99" s="15">
+      <c r="F102" s="15">
         <v>22.8</v>
       </c>
-      <c r="G99" s="15">
+      <c r="G102" s="15">
         <v>12.4</v>
       </c>
-      <c r="H99" s="16">
+      <c r="H102" s="16">
         <v>-25.8</v>
       </c>
-      <c r="I99" s="15">
+      <c r="I102" s="15">
         <v>31.7</v>
       </c>
-      <c r="J99" s="15">
+      <c r="J102" s="15">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="K102" s="19">
+        <v>-182.9</v>
+      </c>
+      <c r="L102" s="19">
+        <v>-197.3</v>
+      </c>
+      <c r="M102" s="19">
+        <v>-116.9</v>
+      </c>
+      <c r="N102" s="19">
+        <v>-143</v>
+      </c>
+      <c r="O102" s="19">
+        <v>-148.30000000000001</v>
+      </c>
+      <c r="P102" s="16">
+        <v>-5.6</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B100" s="19">
+      <c r="B103" s="19">
         <v>-307.7</v>
       </c>
-      <c r="C100" s="15">
+      <c r="C103" s="15">
         <v>53.1</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D103" s="19">
         <v>-128</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E103" s="19">
         <v>-118.3</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F103" s="16">
         <v>-42.6</v>
       </c>
-      <c r="G100" s="15">
+      <c r="G103" s="15">
         <v>5</v>
       </c>
-      <c r="H100" s="16">
+      <c r="H103" s="16">
         <v>-29.5</v>
       </c>
-      <c r="I100" s="15">
+      <c r="I103" s="15">
         <v>25.8</v>
       </c>
-      <c r="J100" s="15">
+      <c r="J103" s="15">
         <v>25.8</v>
+      </c>
+      <c r="K103" s="19">
+        <v>-201.6</v>
+      </c>
+      <c r="L103" s="19">
+        <v>-214.8</v>
+      </c>
+      <c r="M103" s="19">
+        <v>-134.6</v>
+      </c>
+      <c r="N103" s="19">
+        <v>-199.9</v>
+      </c>
+      <c r="O103" s="19">
+        <v>-163.6</v>
+      </c>
+      <c r="P103" s="19">
+        <v>-129.6</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -7387,8 +10070,8 @@
   </sheetPr>
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -7488,34 +10171,34 @@
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7523,34 +10206,34 @@
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="31">
         <v>44286</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="31">
         <v>44104</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="31">
         <v>43921</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="31">
         <v>43738</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="31">
         <v>43555</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="31">
         <v>43373</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="31">
         <v>43190</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="31">
         <v>43008</v>
       </c>
-      <c r="J12" s="29">
+      <c r="J12" s="31">
         <v>42825</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="31">
         <v>42643</v>
       </c>
     </row>
@@ -7558,34 +10241,34 @@
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="31" t="s">
         <v>24</v>
       </c>
     </row>

--- a/GBP Bonds/Electrical Companies/Financials/Eastern Power Networks.xlsx
+++ b/GBP Bonds/Electrical Companies/Financials/Eastern Power Networks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\OneDrive\Documents\University of Bath\13. Dissertation\Data\GBP Bonds\Electrical Companies\Financials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renea\Documents\University of Bath\13. Dissertation\EstimatingCreditSpreadsViaMachineLearning\GBP Bonds\Electrical Companies\Financials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3C859-D59E-4F18-B384-9A3200C78CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9867E69B-8587-41D2-8618-2E6A9FF14A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financial Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="331">
   <si>
     <t>Company Fundamentals - Financial Summary</t>
   </si>
@@ -972,9 +972,6 @@
   </si>
   <si>
     <t>Debt Service Percentage of Normalized after Tax Profit</t>
-  </si>
-  <si>
-    <t>Eastern Power Networks PLC (EEL.L^A96)</t>
   </si>
   <si>
     <t>Annual</t>
@@ -1263,12 +1260,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1289,6 +1280,12 @@
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,17 +1594,17 @@
   </sheetPr>
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="12" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,16 +1620,16 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1638,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1650,7 +1647,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1656,7 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1665,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1677,7 +1674,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1686,16 +1683,16 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1704,100 +1701,100 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="38" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="N11" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="O11" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="Q11" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="R11" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="R11" s="29" t="s">
+      <c r="S11" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="S11" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="30">
         <v>44651</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="39">
         <v>44286</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="39">
         <v>44104</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="39">
         <v>43921</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="39">
         <v>43738</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="39">
         <v>43555</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="39">
         <v>43373</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="39">
         <v>43190</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="39">
         <v>43008</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="39">
         <v>42825</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="39">
         <v>42643</v>
       </c>
       <c r="M12" s="30">
@@ -1822,41 +1819,41 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="39" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="30" t="s">
@@ -1881,7 +1878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -1904,12 +1901,12 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>27</v>
@@ -1942,28 +1939,28 @@
         <v>36</v>
       </c>
       <c r="M15" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="N15" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="Q15" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="R15" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
@@ -1986,11 +1983,11 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>715.1</v>
       </c>
       <c r="C17" s="13">
@@ -2023,33 +2020,33 @@
       <c r="L17" s="13">
         <v>294.39999999999998</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="31">
         <v>777.7</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="31">
         <v>590.20000000000005</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="31">
         <v>557.20000000000005</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="31">
         <v>522.20000000000005</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="31">
         <v>464.7</v>
       </c>
-      <c r="R17" s="33">
+      <c r="R17" s="31">
         <v>440.5</v>
       </c>
-      <c r="S17" s="33">
+      <c r="S17" s="31">
         <v>455.6</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>691.3</v>
       </c>
       <c r="C18" s="13">
@@ -2082,33 +2079,33 @@
       <c r="L18" s="13">
         <v>279.3</v>
       </c>
-      <c r="M18" s="33">
+      <c r="M18" s="31">
         <v>738.9</v>
       </c>
-      <c r="N18" s="33">
+      <c r="N18" s="31">
         <v>576.29999999999995</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="31">
         <v>527.29999999999995</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="31">
         <v>499.3</v>
       </c>
-      <c r="Q18" s="33">
+      <c r="Q18" s="31">
         <v>446.2</v>
       </c>
-      <c r="R18" s="33">
+      <c r="R18" s="31">
         <v>426.1</v>
       </c>
-      <c r="S18" s="33">
+      <c r="S18" s="31">
         <v>441.1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>339.7</v>
       </c>
       <c r="C19" s="13">
@@ -2141,33 +2138,33 @@
       <c r="L19" s="13">
         <v>137.6</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="31">
         <v>372.9</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="31">
         <v>304.89999999999998</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="31">
         <v>279</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="31">
         <v>263.60000000000002</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="31">
         <v>212.5</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="31">
         <v>138.4</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="31">
         <v>218</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="14"/>
       <c r="D20" s="13">
         <v>205.2</v>
@@ -2196,33 +2193,33 @@
       <c r="L20" s="13">
         <v>203.6</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="31">
         <v>532</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N20" s="31">
         <v>404.9</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="31">
         <v>356.9</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="31">
         <v>334.3</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="31">
         <v>279</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="31">
         <v>257</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S20" s="31">
         <v>279.8</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="33">
         <v>52</v>
       </c>
       <c r="C21" s="13">
@@ -2255,29 +2252,29 @@
       <c r="L21" s="15">
         <v>21.1</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="31">
         <v>238.2</v>
       </c>
-      <c r="N21" s="33">
+      <c r="N21" s="31">
         <v>120.5</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="31">
         <v>151.6</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="31">
         <v>189.6</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="33">
         <v>86</v>
       </c>
-      <c r="R21" s="35">
+      <c r="R21" s="33">
         <v>59.7</v>
       </c>
-      <c r="S21" s="33">
+      <c r="S21" s="31">
         <v>117.3</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -2300,11 +2297,11 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13">
         <v>264.7</v>
@@ -2333,33 +2330,33 @@
       <c r="L23" s="15">
         <v>5.9</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="33">
         <v>6.1</v>
       </c>
-      <c r="N23" s="35">
+      <c r="N23" s="33">
         <v>18.7</v>
       </c>
-      <c r="O23" s="35">
+      <c r="O23" s="33">
         <v>17.5</v>
       </c>
-      <c r="P23" s="35">
+      <c r="P23" s="33">
         <v>17.7</v>
       </c>
-      <c r="Q23" s="35">
+      <c r="Q23" s="33">
         <v>11.9</v>
       </c>
-      <c r="R23" s="35">
+      <c r="R23" s="33">
         <v>0.3</v>
       </c>
-      <c r="S23" s="34">
+      <c r="S23" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13">
         <v>264.7</v>
@@ -2388,33 +2385,33 @@
       <c r="L24" s="15">
         <v>5.9</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="33">
         <v>6.1</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="33">
         <v>18.7</v>
       </c>
-      <c r="O24" s="35">
+      <c r="O24" s="33">
         <v>17.5</v>
       </c>
-      <c r="P24" s="35">
+      <c r="P24" s="33">
         <v>17.7</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="33">
         <v>56.9</v>
       </c>
-      <c r="R24" s="35">
+      <c r="R24" s="33">
         <v>15.3</v>
       </c>
-      <c r="S24" s="33">
+      <c r="S24" s="31">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="34"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13">
         <v>5891.1</v>
@@ -2443,33 +2440,33 @@
       <c r="L25" s="13">
         <v>4778.7</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="31">
         <v>4624.6000000000004</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="31">
         <v>3521.6</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="31">
         <v>3234</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="31">
         <v>3067.5</v>
       </c>
-      <c r="Q25" s="33">
+      <c r="Q25" s="31">
         <v>2917.6</v>
       </c>
-      <c r="R25" s="33">
+      <c r="R25" s="31">
         <v>2475.1999999999998</v>
       </c>
-      <c r="S25" s="33">
+      <c r="S25" s="31">
         <v>2439.5</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13">
         <v>1843.6</v>
@@ -2496,21 +2493,21 @@
         <v>1703.5</v>
       </c>
       <c r="L26" s="14"/>
-      <c r="M26" s="33">
+      <c r="M26" s="31">
         <v>1665.4</v>
       </c>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="31">
         <v>1668.3</v>
       </c>
       <c r="C27" s="14"/>
@@ -2541,29 +2538,29 @@
       <c r="L27" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="31">
         <v>1264.0999999999999</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="31">
         <v>1117.7</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="31">
         <v>943.6</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="31">
         <v>808.4</v>
       </c>
-      <c r="R27" s="33">
+      <c r="R27" s="31">
         <v>836.3</v>
       </c>
-      <c r="S27" s="33">
+      <c r="S27" s="31">
         <v>809.7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>49</v>
       </c>
@@ -2586,11 +2583,11 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="31">
         <v>574</v>
       </c>
       <c r="C29" s="13">
@@ -2615,19 +2612,19 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="31">
         <v>361.7</v>
       </c>
       <c r="C30" s="13">
@@ -2652,15 +2649,15 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>52</v>
       </c>
@@ -2689,19 +2686,19 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="31">
         <v>102.9</v>
       </c>
       <c r="C32" s="16">
@@ -2726,15 +2723,15 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>54</v>
       </c>
@@ -2757,11 +2754,11 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15">
         <v>0.12</v>
@@ -2790,21 +2787,21 @@
       <c r="L34" s="15">
         <v>0.08</v>
       </c>
-      <c r="M34" s="35">
+      <c r="M34" s="33">
         <v>0.95</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="14"/>
       <c r="D35" s="13">
         <v>251.51</v>
@@ -2833,17 +2830,17 @@
       <c r="L35" s="13">
         <v>251.51</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="31">
         <v>251.51</v>
       </c>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>57</v>
       </c>
@@ -2866,11 +2863,11 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="34">
         <v>96.67</v>
       </c>
       <c r="C37" s="17">
@@ -2903,33 +2900,33 @@
       <c r="L37" s="17">
         <v>94.87</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="34">
         <v>95.01</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="34">
         <v>97.64</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="34">
         <v>94.63</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="34">
         <v>95.61</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="34">
         <v>96.02</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="34">
         <v>96.73</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="34">
         <v>96.82</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17">
         <v>68.010000000000005</v>
@@ -2958,33 +2955,33 @@
       <c r="L38" s="17">
         <v>69.16</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="34">
         <v>68.41</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="34">
         <v>68.599999999999994</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="34">
         <v>64.05</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="34">
         <v>64.02</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="34">
         <v>60.04</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="34">
         <v>58.34</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="34">
         <v>61.41</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="34">
         <v>47.5</v>
       </c>
       <c r="C39" s="17">
@@ -3017,33 +3014,33 @@
       <c r="L39" s="17">
         <v>46.74</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="34">
         <v>47.95</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="34">
         <v>51.66</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="34">
         <v>50.07</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="34">
         <v>50.48</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="34">
         <v>45.73</v>
       </c>
-      <c r="R39" s="36">
+      <c r="R39" s="34">
         <v>31.42</v>
       </c>
-      <c r="S39" s="36">
+      <c r="S39" s="34">
         <v>47.85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="34">
         <v>20.18</v>
       </c>
       <c r="C40" s="17">
@@ -3076,33 +3073,33 @@
       <c r="L40" s="17">
         <v>5.3</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="34">
         <v>35.409999999999997</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40" s="34">
         <v>25.14</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="34">
         <v>25.45</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40" s="34">
         <v>35.22</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="34">
         <v>16.27</v>
       </c>
-      <c r="R40" s="36">
+      <c r="R40" s="34">
         <v>15.3</v>
       </c>
-      <c r="S40" s="36">
+      <c r="S40" s="34">
         <v>35.78</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="34">
         <v>63.96</v>
       </c>
       <c r="C41" s="17">
@@ -3135,10 +3132,10 @@
       <c r="L41" s="18">
         <v>-35.26</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="34">
         <v>13.51</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="34">
         <v>18.8</v>
       </c>
       <c r="O41" s="18">
@@ -3150,18 +3147,18 @@
       <c r="Q41" s="18">
         <v>-13.76</v>
       </c>
-      <c r="R41" s="36">
+      <c r="R41" s="34">
         <v>11.42</v>
       </c>
-      <c r="S41" s="36">
+      <c r="S41" s="34">
         <v>28.04</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="34">
         <v>7.27</v>
       </c>
       <c r="C42" s="17">
@@ -3194,33 +3191,33 @@
       <c r="L42" s="17">
         <v>7.17</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="34">
         <v>30.63</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="34">
         <v>20.420000000000002</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="34">
         <v>27.21</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="34">
         <v>36.31</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="34">
         <v>18.510000000000002</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="34">
         <v>13.55</v>
       </c>
-      <c r="S42" s="36">
+      <c r="S42" s="34">
         <v>25.75</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="34"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
         <v>13.36</v>
@@ -3245,29 +3242,29 @@
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36">
+      <c r="M43" s="34"/>
+      <c r="N43" s="34">
         <v>11.11</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="34">
         <v>15.2</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="34">
         <v>21.64</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="34">
         <v>10.46</v>
       </c>
-      <c r="R43" s="36">
+      <c r="R43" s="34">
         <v>7.25</v>
       </c>
-      <c r="S43" s="36"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S43" s="34"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17">
         <v>3.54</v>
@@ -3292,29 +3289,29 @@
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36">
+      <c r="M44" s="34"/>
+      <c r="N44" s="34">
         <v>3.57</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="34">
         <v>4.8099999999999996</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44" s="34">
         <v>6.34</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="34">
         <v>3.19</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="34">
         <v>2.4300000000000002</v>
       </c>
-      <c r="S44" s="36"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S44" s="34"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="34"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17">
         <v>8.08</v>
@@ -3339,25 +3336,25 @@
       </c>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36">
+      <c r="M45" s="34"/>
+      <c r="N45" s="34">
         <v>15.96</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="34">
         <v>22.18</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="34">
         <v>29.44</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="34">
         <v>17.84</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="34">
         <v>22.44</v>
       </c>
-      <c r="S45" s="36"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S45" s="34"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>67</v>
       </c>
@@ -3380,11 +3377,11 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="31">
         <v>715.1</v>
       </c>
       <c r="C47" s="13">
@@ -3417,33 +3414,33 @@
       <c r="L47" s="13">
         <v>294.39999999999998</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="31">
         <v>777.7</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="31">
         <v>590.20000000000005</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="31">
         <v>557.20000000000005</v>
       </c>
-      <c r="P47" s="33">
+      <c r="P47" s="31">
         <v>522.20000000000005</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="Q47" s="31">
         <v>464.7</v>
       </c>
-      <c r="R47" s="33">
+      <c r="R47" s="31">
         <v>440.5</v>
       </c>
-      <c r="S47" s="33">
+      <c r="S47" s="31">
         <v>455.6</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="31">
         <v>339.7</v>
       </c>
       <c r="C48" s="13">
@@ -3476,33 +3473,33 @@
       <c r="L48" s="13">
         <v>137.6</v>
       </c>
-      <c r="M48" s="33">
+      <c r="M48" s="31">
         <v>372.9</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="31">
         <v>304.89999999999998</v>
       </c>
-      <c r="O48" s="33">
+      <c r="O48" s="31">
         <v>279</v>
       </c>
-      <c r="P48" s="33">
+      <c r="P48" s="31">
         <v>263.60000000000002</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="31">
         <v>212.5</v>
       </c>
-      <c r="R48" s="33">
+      <c r="R48" s="31">
         <v>138.4</v>
       </c>
-      <c r="S48" s="33">
+      <c r="S48" s="31">
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="14"/>
       <c r="D49" s="13">
         <v>205.2</v>
@@ -3531,33 +3528,33 @@
       <c r="L49" s="13">
         <v>203.6</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="31">
         <v>532</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="31">
         <v>404.9</v>
       </c>
-      <c r="O49" s="33">
+      <c r="O49" s="31">
         <v>356.9</v>
       </c>
-      <c r="P49" s="33">
+      <c r="P49" s="31">
         <v>334.3</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="31">
         <v>279</v>
       </c>
-      <c r="R49" s="33">
+      <c r="R49" s="31">
         <v>257</v>
       </c>
-      <c r="S49" s="33">
+      <c r="S49" s="31">
         <v>279.8</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="33">
         <v>52</v>
       </c>
       <c r="C50" s="13">
@@ -3590,33 +3587,33 @@
       <c r="L50" s="15">
         <v>21.1</v>
       </c>
-      <c r="M50" s="33">
+      <c r="M50" s="31">
         <v>238.2</v>
       </c>
-      <c r="N50" s="33">
+      <c r="N50" s="31">
         <v>120.5</v>
       </c>
-      <c r="O50" s="33">
+      <c r="O50" s="31">
         <v>151.6</v>
       </c>
-      <c r="P50" s="33">
+      <c r="P50" s="31">
         <v>189.6</v>
       </c>
-      <c r="Q50" s="35">
+      <c r="Q50" s="33">
         <v>86</v>
       </c>
-      <c r="R50" s="35">
+      <c r="R50" s="33">
         <v>59.7</v>
       </c>
-      <c r="S50" s="33">
+      <c r="S50" s="31">
         <v>117.3</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="34"/>
+      <c r="B51" s="32"/>
       <c r="C51" s="14"/>
       <c r="D51" s="15">
         <v>0.12</v>
@@ -3645,21 +3642,21 @@
       <c r="L51" s="15">
         <v>0.08</v>
       </c>
-      <c r="M51" s="35">
+      <c r="M51" s="33">
         <v>0.95</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-    </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="34"/>
+      <c r="B52" s="32"/>
       <c r="C52" s="14"/>
       <c r="D52" s="13">
         <v>251.51</v>
@@ -3688,29 +3685,29 @@
       <c r="L52" s="13">
         <v>251.51</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M52" s="31">
         <v>251.51</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="31">
         <v>251.51</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="31">
         <v>251.51</v>
       </c>
-      <c r="P52" s="33">
+      <c r="P52" s="31">
         <v>251.51</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="Q52" s="31">
         <v>251.51</v>
       </c>
-      <c r="R52" s="33">
+      <c r="R52" s="31">
         <v>251.51</v>
       </c>
-      <c r="S52" s="33">
+      <c r="S52" s="31">
         <v>251.51</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>69</v>
       </c>
@@ -3733,11 +3730,11 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="36"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17">
         <v>31.29</v>
@@ -3764,21 +3761,21 @@
         <v>35.65</v>
       </c>
       <c r="L54" s="17"/>
-      <c r="M54" s="36">
+      <c r="M54" s="34">
         <v>36.01</v>
       </c>
-      <c r="N54" s="36"/>
-      <c r="O54" s="36"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="36"/>
-      <c r="S54" s="36"/>
-    </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="36"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
         <v>54.78</v>
@@ -3805,21 +3802,21 @@
         <v>57.53</v>
       </c>
       <c r="L55" s="17"/>
-      <c r="M55" s="36">
+      <c r="M55" s="34">
         <v>56.85</v>
       </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-    </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B56" s="36"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17">
         <v>121.13</v>
@@ -3846,21 +3843,21 @@
         <v>135.47999999999999</v>
       </c>
       <c r="L56" s="17"/>
-      <c r="M56" s="36">
+      <c r="M56" s="34">
         <v>131.75</v>
       </c>
-      <c r="N56" s="36"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-    </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="31">
         <v>195.4</v>
       </c>
       <c r="C57" s="17"/>
@@ -3873,31 +3870,31 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="35">
+      <c r="M57" s="32"/>
+      <c r="N57" s="33">
         <v>58.9</v>
       </c>
-      <c r="O57" s="35">
+      <c r="O57" s="33">
         <v>59.1</v>
       </c>
-      <c r="P57" s="35">
+      <c r="P57" s="33">
         <v>60.4</v>
       </c>
-      <c r="Q57" s="35">
+      <c r="Q57" s="33">
         <v>48.6</v>
       </c>
-      <c r="R57" s="33">
+      <c r="R57" s="31">
         <v>140.69999999999999</v>
       </c>
-      <c r="S57" s="33">
+      <c r="S57" s="31">
         <v>110.3</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B58" s="36">
+      <c r="B58" s="34">
         <v>375.77</v>
       </c>
       <c r="C58" s="17"/>
@@ -3910,31 +3907,31 @@
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36">
+      <c r="M58" s="34"/>
+      <c r="N58" s="34">
         <v>27.14</v>
       </c>
-      <c r="O58" s="36">
+      <c r="O58" s="34">
         <v>25.98</v>
       </c>
-      <c r="P58" s="36">
+      <c r="P58" s="34">
         <v>28.91</v>
       </c>
-      <c r="Q58" s="36">
+      <c r="Q58" s="34">
         <v>27.88</v>
       </c>
-      <c r="R58" s="36">
+      <c r="R58" s="34">
         <v>235.68</v>
       </c>
-      <c r="S58" s="36">
+      <c r="S58" s="34">
         <v>94.03</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="33">
         <v>1.74</v>
       </c>
       <c r="C59" s="17"/>
@@ -3947,33 +3944,33 @@
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
-      <c r="M59" s="35">
+      <c r="M59" s="33">
         <v>3.94</v>
       </c>
-      <c r="N59" s="35">
+      <c r="N59" s="33">
         <v>4.71</v>
       </c>
-      <c r="O59" s="35">
+      <c r="O59" s="33">
         <v>4.29</v>
       </c>
-      <c r="P59" s="35">
+      <c r="P59" s="33">
         <v>3.98</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="33">
         <v>3.98</v>
       </c>
-      <c r="R59" s="35">
+      <c r="R59" s="33">
         <v>0.98</v>
       </c>
-      <c r="S59" s="35">
+      <c r="S59" s="33">
         <v>1.97</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="36"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="15">
         <v>10.01</v>
       </c>
@@ -4004,23 +4001,23 @@
       <c r="L60" s="15">
         <v>3.51</v>
       </c>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36">
+      <c r="M60" s="34"/>
+      <c r="N60" s="34"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="34"/>
+      <c r="Q60" s="34">
         <v>114.67</v>
       </c>
-      <c r="R60" s="36">
+      <c r="R60" s="34">
         <v>281.60000000000002</v>
       </c>
-      <c r="S60" s="36"/>
-    </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S60" s="34"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="34"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="14"/>
       <c r="D61" s="15">
         <v>1</v>
@@ -4049,31 +4046,31 @@
       <c r="L61" s="15">
         <v>1</v>
       </c>
-      <c r="M61" s="34"/>
-      <c r="N61" s="35">
+      <c r="M61" s="32"/>
+      <c r="N61" s="33">
         <v>1</v>
       </c>
-      <c r="O61" s="35">
+      <c r="O61" s="33">
         <v>1</v>
       </c>
-      <c r="P61" s="35">
+      <c r="P61" s="33">
         <v>1</v>
       </c>
-      <c r="Q61" s="35">
+      <c r="Q61" s="33">
         <v>0.13</v>
       </c>
-      <c r="R61" s="35">
+      <c r="R61" s="33">
         <v>0.64</v>
       </c>
-      <c r="S61" s="35">
+      <c r="S61" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="36"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17">
         <v>0</v>
@@ -4102,27 +4099,27 @@
       <c r="L62" s="17">
         <v>0</v>
       </c>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36">
+      <c r="M62" s="34"/>
+      <c r="N62" s="34">
         <v>0</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="34">
         <v>0</v>
       </c>
-      <c r="P62" s="36">
+      <c r="P62" s="34">
         <v>0</v>
       </c>
-      <c r="Q62" s="36">
+      <c r="Q62" s="34">
         <v>87.21</v>
       </c>
-      <c r="R62" s="36">
+      <c r="R62" s="34">
         <v>35.51</v>
       </c>
-      <c r="S62" s="36">
+      <c r="S62" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>76</v>
       </c>
@@ -4145,11 +4142,11 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="34"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="14"/>
       <c r="D64" s="13">
         <v>1843.6</v>
@@ -4176,21 +4173,21 @@
         <v>1703.5</v>
       </c>
       <c r="L64" s="14"/>
-      <c r="M64" s="33">
+      <c r="M64" s="31">
         <v>1665.4</v>
       </c>
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-    </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="32"/>
       <c r="C65" s="14"/>
       <c r="D65" s="13">
         <v>264.7</v>
@@ -4219,29 +4216,29 @@
       <c r="L65" s="15">
         <v>5.9</v>
       </c>
-      <c r="M65" s="35">
+      <c r="M65" s="33">
         <v>6.1</v>
       </c>
-      <c r="N65" s="35">
+      <c r="N65" s="33">
         <v>18.7</v>
       </c>
-      <c r="O65" s="35">
+      <c r="O65" s="33">
         <v>17.5</v>
       </c>
-      <c r="P65" s="35">
+      <c r="P65" s="33">
         <v>17.7</v>
       </c>
-      <c r="Q65" s="35">
+      <c r="Q65" s="33">
         <v>56.9</v>
       </c>
-      <c r="R65" s="35">
+      <c r="R65" s="33">
         <v>15.3</v>
       </c>
-      <c r="S65" s="33">
+      <c r="S65" s="31">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>78</v>
       </c>
@@ -4264,11 +4261,11 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="34"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="14"/>
       <c r="D67" s="15">
         <v>0.12</v>
@@ -4293,29 +4290,29 @@
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="35">
+      <c r="M67" s="32"/>
+      <c r="N67" s="33">
         <v>0.17</v>
       </c>
-      <c r="O67" s="35">
+      <c r="O67" s="33">
         <v>0.18</v>
       </c>
-      <c r="P67" s="35">
+      <c r="P67" s="33">
         <v>0.17</v>
       </c>
-      <c r="Q67" s="35">
+      <c r="Q67" s="33">
         <v>0.17</v>
       </c>
-      <c r="R67" s="35">
+      <c r="R67" s="33">
         <v>0.18</v>
       </c>
-      <c r="S67" s="34"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="36">
+      <c r="B68" s="34">
         <v>20.18</v>
       </c>
       <c r="C68" s="17">
@@ -4346,33 +4343,33 @@
         <v>23.55</v>
       </c>
       <c r="L68" s="17"/>
-      <c r="M68" s="36">
+      <c r="M68" s="34">
         <v>35.409999999999997</v>
       </c>
-      <c r="N68" s="36">
+      <c r="N68" s="34">
         <v>25.14</v>
       </c>
-      <c r="O68" s="36">
+      <c r="O68" s="34">
         <v>25.45</v>
       </c>
-      <c r="P68" s="36">
+      <c r="P68" s="34">
         <v>35.22</v>
       </c>
-      <c r="Q68" s="36">
+      <c r="Q68" s="34">
         <v>16.27</v>
       </c>
-      <c r="R68" s="36">
+      <c r="R68" s="34">
         <v>15.3</v>
       </c>
-      <c r="S68" s="36">
+      <c r="S68" s="34">
         <v>35.78</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="36"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17">
         <v>4.8099999999999996</v>
@@ -4397,29 +4394,29 @@
       </c>
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
-      <c r="M69" s="36"/>
-      <c r="N69" s="36">
+      <c r="M69" s="34"/>
+      <c r="N69" s="34">
         <v>4.3899999999999997</v>
       </c>
-      <c r="O69" s="36">
+      <c r="O69" s="34">
         <v>4.5</v>
       </c>
-      <c r="P69" s="36">
+      <c r="P69" s="34">
         <v>6.15</v>
       </c>
-      <c r="Q69" s="36">
+      <c r="Q69" s="34">
         <v>2.8</v>
       </c>
-      <c r="R69" s="36">
+      <c r="R69" s="34">
         <v>2.74</v>
       </c>
-      <c r="S69" s="36"/>
-    </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S69" s="34"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="34"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="14"/>
       <c r="D70" s="15">
         <v>3.78</v>
@@ -4444,29 +4441,29 @@
       </c>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="35">
+      <c r="M70" s="32"/>
+      <c r="N70" s="33">
         <v>3.11</v>
       </c>
-      <c r="O70" s="35">
+      <c r="O70" s="33">
         <v>3.16</v>
       </c>
-      <c r="P70" s="35">
+      <c r="P70" s="33">
         <v>3.42</v>
       </c>
-      <c r="Q70" s="35">
+      <c r="Q70" s="33">
         <v>3.28</v>
       </c>
-      <c r="R70" s="35">
+      <c r="R70" s="33">
         <v>2.99</v>
       </c>
-      <c r="S70" s="34"/>
-    </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S70" s="32"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="36"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17">
         <v>18.149999999999999</v>
@@ -4491,29 +4488,29 @@
       </c>
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36">
+      <c r="M71" s="34"/>
+      <c r="N71" s="34">
         <v>13.68</v>
       </c>
-      <c r="O71" s="36">
+      <c r="O71" s="34">
         <v>14.22</v>
       </c>
-      <c r="P71" s="36">
+      <c r="P71" s="34">
         <v>20.99</v>
       </c>
-      <c r="Q71" s="36">
+      <c r="Q71" s="34">
         <v>9.19</v>
       </c>
-      <c r="R71" s="36">
+      <c r="R71" s="34">
         <v>8.19</v>
       </c>
-      <c r="S71" s="36"/>
-    </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S71" s="34"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="35">
+      <c r="B72" s="33">
         <v>0.36</v>
       </c>
       <c r="C72" s="15">
@@ -4544,33 +4541,33 @@
         <v>0.86</v>
       </c>
       <c r="L72" s="14"/>
-      <c r="M72" s="35">
+      <c r="M72" s="33">
         <v>0.86</v>
       </c>
-      <c r="N72" s="35">
+      <c r="N72" s="33">
         <v>0.81</v>
       </c>
-      <c r="O72" s="35">
+      <c r="O72" s="33">
         <v>1.07</v>
       </c>
-      <c r="P72" s="35">
+      <c r="P72" s="33">
         <v>1.03</v>
       </c>
-      <c r="Q72" s="35">
+      <c r="Q72" s="33">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R72" s="35">
+      <c r="R72" s="33">
         <v>0.89</v>
       </c>
-      <c r="S72" s="35">
+      <c r="S72" s="33">
         <v>0.72</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="36"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17">
         <v>13.36</v>
@@ -4595,29 +4592,29 @@
       </c>
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36">
+      <c r="M73" s="34"/>
+      <c r="N73" s="34">
         <v>11.11</v>
       </c>
-      <c r="O73" s="36">
+      <c r="O73" s="34">
         <v>15.2</v>
       </c>
-      <c r="P73" s="36">
+      <c r="P73" s="34">
         <v>21.64</v>
       </c>
-      <c r="Q73" s="36">
+      <c r="Q73" s="34">
         <v>10.46</v>
       </c>
-      <c r="R73" s="36">
+      <c r="R73" s="34">
         <v>7.25</v>
       </c>
-      <c r="S73" s="36"/>
-    </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S73" s="34"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="32"/>
       <c r="C74" s="14"/>
       <c r="D74" s="15">
         <v>1</v>
@@ -4644,31 +4641,31 @@
         <v>1</v>
       </c>
       <c r="L74" s="14"/>
-      <c r="M74" s="34"/>
-      <c r="N74" s="35">
+      <c r="M74" s="32"/>
+      <c r="N74" s="33">
         <v>1</v>
       </c>
-      <c r="O74" s="35">
+      <c r="O74" s="33">
         <v>1</v>
       </c>
-      <c r="P74" s="35">
+      <c r="P74" s="33">
         <v>1</v>
       </c>
-      <c r="Q74" s="35">
+      <c r="Q74" s="33">
         <v>0.13</v>
       </c>
-      <c r="R74" s="35">
+      <c r="R74" s="33">
         <v>0.64</v>
       </c>
-      <c r="S74" s="35">
+      <c r="S74" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="36"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17">
         <v>13.36</v>
@@ -4693,25 +4690,25 @@
       </c>
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
-      <c r="M75" s="36"/>
-      <c r="N75" s="36">
+      <c r="M75" s="34"/>
+      <c r="N75" s="34">
         <v>11.11</v>
       </c>
-      <c r="O75" s="36">
+      <c r="O75" s="34">
         <v>15.2</v>
       </c>
-      <c r="P75" s="36">
+      <c r="P75" s="34">
         <v>21.64</v>
       </c>
-      <c r="Q75" s="36">
+      <c r="Q75" s="34">
         <v>1.34</v>
       </c>
-      <c r="R75" s="36">
+      <c r="R75" s="34">
         <v>4.68</v>
       </c>
-      <c r="S75" s="36"/>
-    </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S75" s="34"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>87</v>
       </c>
@@ -4734,11 +4731,11 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="34"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="14"/>
       <c r="D77" s="15">
         <v>0.93884226994737574</v>
@@ -4767,33 +4764,33 @@
       <c r="L77" s="15">
         <v>1.1282362459546924</v>
       </c>
-      <c r="M77" s="35">
+      <c r="M77" s="33">
         <v>1.1574743248383417</v>
       </c>
-      <c r="N77" s="35">
+      <c r="N77" s="33">
         <v>0.48953391013117492</v>
       </c>
-      <c r="O77" s="35">
+      <c r="O77" s="33">
         <v>0.36640976236351958</v>
       </c>
-      <c r="P77" s="35">
+      <c r="P77" s="33">
         <v>0.48067525544202577</v>
       </c>
-      <c r="Q77" s="35">
+      <c r="Q77" s="33">
         <v>0.70052356020942408</v>
       </c>
-      <c r="R77" s="35">
+      <c r="R77" s="33">
         <v>0.33971504897595728</v>
       </c>
-      <c r="S77" s="35">
+      <c r="S77" s="33">
         <v>0.9717314487632509</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="34"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="14"/>
       <c r="D78" s="15">
         <v>0.94</v>
@@ -4822,33 +4819,33 @@
       <c r="L78" s="15">
         <v>1.1299999999999999</v>
       </c>
-      <c r="M78" s="35">
+      <c r="M78" s="33">
         <v>1.1599999999999999</v>
       </c>
-      <c r="N78" s="35">
+      <c r="N78" s="33">
         <v>0.49</v>
       </c>
-      <c r="O78" s="35">
+      <c r="O78" s="33">
         <v>0.37</v>
       </c>
-      <c r="P78" s="35">
+      <c r="P78" s="33">
         <v>0.48</v>
       </c>
-      <c r="Q78" s="35">
+      <c r="Q78" s="33">
         <v>0.7</v>
       </c>
-      <c r="R78" s="35">
+      <c r="R78" s="33">
         <v>0.34</v>
       </c>
-      <c r="S78" s="35">
+      <c r="S78" s="33">
         <v>0.97</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="34"/>
+      <c r="B79" s="32"/>
       <c r="C79" s="14"/>
       <c r="D79" s="16">
         <v>-0.01</v>
@@ -4877,7 +4874,7 @@
       <c r="L79" s="15">
         <v>0.01</v>
       </c>
-      <c r="M79" s="35">
+      <c r="M79" s="33">
         <v>0.01</v>
       </c>
       <c r="N79" s="16">
@@ -4895,11 +4892,11 @@
       <c r="R79" s="16">
         <v>-0.06</v>
       </c>
-      <c r="S79" s="37">
+      <c r="S79" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>90</v>
       </c>
@@ -4922,11 +4919,11 @@
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="34"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="14"/>
       <c r="D81" s="15">
         <v>1.87</v>
@@ -4951,29 +4948,29 @@
       </c>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="35">
+      <c r="M81" s="32"/>
+      <c r="N81" s="33">
         <v>4.66</v>
       </c>
-      <c r="O81" s="35">
+      <c r="O81" s="33">
         <v>5.96</v>
       </c>
-      <c r="P81" s="35">
+      <c r="P81" s="33">
         <v>2.84</v>
       </c>
-      <c r="Q81" s="35">
+      <c r="Q81" s="33">
         <v>2.74</v>
       </c>
-      <c r="R81" s="35">
+      <c r="R81" s="33">
         <v>6.8</v>
       </c>
-      <c r="S81" s="34"/>
-    </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S81" s="32"/>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="34"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="14"/>
       <c r="D82" s="13">
         <v>195.43</v>
@@ -4998,29 +4995,29 @@
       </c>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="35">
+      <c r="M82" s="32"/>
+      <c r="N82" s="33">
         <v>78.540000000000006</v>
       </c>
-      <c r="O82" s="35">
+      <c r="O82" s="33">
         <v>61.45</v>
       </c>
-      <c r="P82" s="33">
+      <c r="P82" s="31">
         <v>129</v>
       </c>
-      <c r="Q82" s="33">
+      <c r="Q82" s="31">
         <v>133.34</v>
       </c>
-      <c r="R82" s="35">
+      <c r="R82" s="33">
         <v>53.8</v>
       </c>
-      <c r="S82" s="34"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S82" s="32"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="34"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="14"/>
       <c r="D83" s="15">
         <v>0.06</v>
@@ -5045,29 +5042,29 @@
       </c>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="35">
+      <c r="M83" s="32"/>
+      <c r="N83" s="33">
         <v>0.04</v>
       </c>
-      <c r="O83" s="35">
+      <c r="O83" s="33">
         <v>0.11</v>
       </c>
-      <c r="P83" s="35">
+      <c r="P83" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q83" s="35">
+      <c r="Q83" s="33">
         <v>0.05</v>
       </c>
-      <c r="R83" s="35">
+      <c r="R83" s="33">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S83" s="34"/>
-    </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S83" s="32"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="34"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="14"/>
       <c r="D84" s="13">
         <v>5654</v>
@@ -5092,29 +5089,29 @@
       </c>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="33">
+      <c r="M84" s="32"/>
+      <c r="N84" s="31">
         <v>8816.91</v>
       </c>
-      <c r="O84" s="33">
+      <c r="O84" s="31">
         <v>3283.6</v>
       </c>
-      <c r="P84" s="33">
+      <c r="P84" s="31">
         <v>5614.66</v>
       </c>
-      <c r="Q84" s="33">
+      <c r="Q84" s="31">
         <v>6945.1</v>
       </c>
-      <c r="R84" s="33">
+      <c r="R84" s="31">
         <v>5371.81</v>
       </c>
-      <c r="S84" s="34"/>
-    </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S84" s="32"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="34"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="14"/>
       <c r="D85" s="19">
         <v>-5458.57</v>
@@ -5139,7 +5136,7 @@
       </c>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
-      <c r="M85" s="34"/>
+      <c r="M85" s="32"/>
       <c r="N85" s="19">
         <v>-8738.3700000000008</v>
       </c>
@@ -5155,15 +5152,15 @@
       <c r="R85" s="19">
         <v>-5318.01</v>
       </c>
-      <c r="S85" s="34"/>
+      <c r="S85" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="L13"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="C12"/>
     <mergeCell ref="C13"/>
@@ -5180,11 +5177,11 @@
     <mergeCell ref="I12"/>
     <mergeCell ref="I13"/>
     <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="L13"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -5198,17 +5195,17 @@
   </sheetPr>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -5219,7 +5216,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5251,7 +5248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -5259,7 +5256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -5267,7 +5264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -5283,7 +5280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -5291,76 +5288,76 @@
         <v>44954.495352199097</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="39">
         <v>44286</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="39">
         <v>44104</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="39">
         <v>43921</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="39">
         <v>43738</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="39">
         <v>43555</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="39">
         <v>43373</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>97</v>
       </c>
@@ -5371,7 +5368,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>98</v>
       </c>
@@ -5405,7 +5402,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>99</v>
       </c>
@@ -5428,7 +5425,7 @@
         <v>211.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>100</v>
       </c>
@@ -5451,7 +5448,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>101</v>
       </c>
@@ -5474,7 +5471,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>102</v>
       </c>
@@ -5497,7 +5494,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>103</v>
       </c>
@@ -5518,7 +5515,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>50</v>
       </c>
@@ -5541,7 +5538,7 @@
         <v>142.30000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>104</v>
       </c>
@@ -5552,7 +5549,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>51</v>
       </c>
@@ -5575,7 +5572,7 @@
         <v>171.6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>105</v>
       </c>
@@ -5598,7 +5595,7 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>106</v>
       </c>
@@ -5621,7 +5618,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>107</v>
       </c>
@@ -5644,7 +5641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>108</v>
       </c>
@@ -5667,7 +5664,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>109</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>110</v>
       </c>
@@ -5713,7 +5710,7 @@
         <v>171.8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>111</v>
       </c>
@@ -5732,7 +5729,7 @@
         <v>53.7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>112</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>-117.9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>113</v>
       </c>
@@ -5766,7 +5763,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>114</v>
       </c>
@@ -5789,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>115</v>
       </c>
@@ -5812,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>116</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>117</v>
       </c>
@@ -5856,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>118</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>119</v>
       </c>
@@ -5888,7 +5885,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>120</v>
       </c>
@@ -5911,7 +5908,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>121</v>
       </c>
@@ -5934,7 +5931,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>122</v>
       </c>
@@ -5947,7 +5944,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>123</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>124</v>
       </c>
@@ -5981,7 +5978,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>52</v>
       </c>
@@ -6004,7 +6001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>125</v>
       </c>
@@ -6025,7 +6022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>126</v>
       </c>
@@ -6046,7 +6043,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>127</v>
       </c>
@@ -6069,7 +6066,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>128</v>
       </c>
@@ -6080,7 +6077,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>129</v>
       </c>
@@ -6103,7 +6100,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>130</v>
       </c>
@@ -6126,7 +6123,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>131</v>
       </c>
@@ -6149,7 +6146,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>132</v>
       </c>
@@ -6170,7 +6167,7 @@
         <v>155.1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>133</v>
       </c>
@@ -6193,7 +6190,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>53</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>134</v>
       </c>
@@ -6241,22 +6238,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="D13"/>
     <mergeCell ref="B11"/>
     <mergeCell ref="C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B12"/>
     <mergeCell ref="E12"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="G13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -6276,13 +6273,13 @@
       <selection pane="topRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -6296,7 +6293,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -6328,7 +6325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -6352,7 +6349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -6360,7 +6357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -6368,85 +6365,85 @@
         <v>44954.495352233796</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="38" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="L11" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="M11" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="N11" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="O11" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="P11" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="39">
         <v>44104</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="39">
         <v>43921</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="39">
         <v>43738</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="39">
         <v>43555</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="39">
         <v>43373</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="39">
         <v>43190</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="39">
         <v>43008</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="39">
         <v>42825</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="39">
         <v>42643</v>
       </c>
       <c r="K12" s="30">
@@ -6468,35 +6465,35 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="39" t="s">
         <v>24</v>
       </c>
       <c r="K13" s="30" t="s">
@@ -6518,7 +6515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>136</v>
       </c>
@@ -6538,7 +6535,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -6570,25 +6567,25 @@
         <v>36</v>
       </c>
       <c r="K15" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="M15" s="9" t="s">
+      <c r="N15" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="O15" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="P15" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>137</v>
       </c>
@@ -6602,7 +6599,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>45</v>
       </c>
@@ -6652,7 +6649,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>44</v>
       </c>
@@ -6702,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>138</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>139</v>
       </c>
@@ -6802,7 +6799,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>140</v>
       </c>
@@ -6833,26 +6830,26 @@
       <c r="J21" s="21">
         <v>278.89999999999998</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>175.4</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>114.1</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="36">
         <v>108.2</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="36">
         <v>334.5</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="37">
         <v>76.3</v>
       </c>
-      <c r="P21" s="38">
+      <c r="P21" s="36">
         <v>192.5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>141</v>
       </c>
@@ -6866,7 +6863,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>142</v>
       </c>
@@ -6916,7 +6913,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>143</v>
       </c>
@@ -6932,7 +6929,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>144</v>
       </c>
@@ -6948,7 +6945,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>145</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>146</v>
       </c>
@@ -7012,7 +7009,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +7041,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>148</v>
       </c>
@@ -7075,26 +7072,26 @@
       <c r="J29" s="21">
         <v>4499.8</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>3346.2</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>3119.9</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="36">
         <v>2959.3</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="36">
         <v>2583.1</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="36">
         <v>2398.9</v>
       </c>
-      <c r="P29" s="38">
+      <c r="P29" s="36">
         <v>2247</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
@@ -7108,7 +7105,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>46</v>
       </c>
@@ -7139,26 +7136,26 @@
       <c r="J31" s="21">
         <v>4778.7</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>3521.6</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>3234</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="36">
         <v>3067.5</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="36">
         <v>2917.6</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="36">
         <v>2475.1999999999998</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="36">
         <v>2439.5</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>149</v>
       </c>
@@ -7172,7 +7169,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>150</v>
       </c>
@@ -7203,26 +7200,26 @@
       <c r="J33" s="13">
         <v>247.2</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="31">
         <v>358.3</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="31">
         <v>311.39999999999998</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="31">
         <v>225.1</v>
       </c>
-      <c r="N33" s="33">
+      <c r="N33" s="31">
         <v>477.5</v>
       </c>
-      <c r="O33" s="33">
+      <c r="O33" s="31">
         <v>224.6</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="31">
         <v>198.1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>151</v>
       </c>
@@ -7253,26 +7250,26 @@
       <c r="J34" s="13">
         <v>247.2</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="31">
         <v>358.3</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="31">
         <v>311.39999999999998</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="31">
         <v>225.1</v>
       </c>
-      <c r="N34" s="33">
+      <c r="N34" s="31">
         <v>477.5</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="31">
         <v>224.6</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="31">
         <v>198.1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>152</v>
       </c>
@@ -7288,7 +7285,7 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>153</v>
       </c>
@@ -7304,7 +7301,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>154</v>
       </c>
@@ -7320,7 +7317,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>155</v>
       </c>
@@ -7351,26 +7348,26 @@
       <c r="J38" s="21">
         <v>247.2</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="36">
         <v>358.3</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="36">
         <v>311.39999999999998</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38" s="36">
         <v>225.1</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="36">
         <v>477.5</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="36">
         <v>224.6</v>
       </c>
-      <c r="P38" s="38">
+      <c r="P38" s="36">
         <v>198.1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>156</v>
       </c>
@@ -7384,7 +7381,7 @@
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
-    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>157</v>
       </c>
@@ -7415,26 +7412,26 @@
       <c r="J40" s="13">
         <v>2992.9</v>
       </c>
-      <c r="K40" s="33">
+      <c r="K40" s="31">
         <v>1770</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="31">
         <v>1575.7</v>
       </c>
-      <c r="M40" s="33">
+      <c r="M40" s="31">
         <v>1586.3</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="31">
         <v>1305.7</v>
       </c>
-      <c r="O40" s="33">
+      <c r="O40" s="31">
         <v>1090.4000000000001</v>
       </c>
-      <c r="P40" s="33">
+      <c r="P40" s="31">
         <v>1089.8</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>158</v>
       </c>
@@ -7465,26 +7462,26 @@
       <c r="J41" s="13">
         <v>2992.9</v>
       </c>
-      <c r="K41" s="33">
+      <c r="K41" s="31">
         <v>1770</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="31">
         <v>1575.7</v>
       </c>
-      <c r="M41" s="33">
+      <c r="M41" s="31">
         <v>1586.3</v>
       </c>
-      <c r="N41" s="33">
+      <c r="N41" s="31">
         <v>1305.7</v>
       </c>
-      <c r="O41" s="33">
+      <c r="O41" s="31">
         <v>1090.4000000000001</v>
       </c>
-      <c r="P41" s="33">
+      <c r="P41" s="31">
         <v>1089.8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>159</v>
       </c>
@@ -7514,7 +7511,7 @@
       </c>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>160</v>
       </c>
@@ -7544,7 +7541,7 @@
       </c>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
         <v>161</v>
       </c>
@@ -7574,7 +7571,7 @@
       </c>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>162</v>
       </c>
@@ -7624,7 +7621,7 @@
         <v>341.9</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>163</v>
       </c>
@@ -7656,7 +7653,7 @@
         <v>281.2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>164</v>
       </c>
@@ -7687,26 +7684,26 @@
       <c r="J47" s="13">
         <v>3274.1</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="31">
         <v>2045.6</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="31">
         <v>1871.2</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="31">
         <v>1898.8</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="31">
         <v>1631.7</v>
       </c>
-      <c r="O47" s="33">
+      <c r="O47" s="31">
         <v>1414.3</v>
       </c>
-      <c r="P47" s="33">
+      <c r="P47" s="31">
         <v>1431.7</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>165</v>
       </c>
@@ -7720,7 +7717,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>165</v>
       </c>
@@ -7751,26 +7748,26 @@
       <c r="J49" s="21">
         <v>3521.3</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="36">
         <v>2403.9</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="36">
         <v>2182.6</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="36">
         <v>2123.9</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="36">
         <v>2109.1999999999998</v>
       </c>
-      <c r="O49" s="38">
+      <c r="O49" s="36">
         <v>1638.9</v>
       </c>
-      <c r="P49" s="38">
+      <c r="P49" s="36">
         <v>1629.8</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>166</v>
       </c>
@@ -7784,7 +7781,7 @@
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
     </row>
-    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>167</v>
       </c>
@@ -7815,26 +7812,26 @@
       <c r="J51" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L51" s="33">
+      <c r="L51" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="31">
         <v>943.6</v>
       </c>
-      <c r="N51" s="33">
+      <c r="N51" s="31">
         <v>808.4</v>
       </c>
-      <c r="O51" s="33">
+      <c r="O51" s="31">
         <v>836.3</v>
       </c>
-      <c r="P51" s="33">
+      <c r="P51" s="31">
         <v>809.7</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>168</v>
       </c>
@@ -7865,26 +7862,26 @@
       <c r="J52" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L52" s="33">
+      <c r="L52" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M52" s="31">
         <v>943.6</v>
       </c>
-      <c r="N52" s="33">
+      <c r="N52" s="31">
         <v>808.4</v>
       </c>
-      <c r="O52" s="33">
+      <c r="O52" s="31">
         <v>836.3</v>
       </c>
-      <c r="P52" s="33">
+      <c r="P52" s="31">
         <v>809.7</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>169</v>
       </c>
@@ -7915,26 +7912,26 @@
       <c r="J53" s="13">
         <v>131.4</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="31">
         <v>131.4</v>
       </c>
-      <c r="L53" s="33">
+      <c r="L53" s="31">
         <v>131.4</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="31">
         <v>131.4</v>
       </c>
-      <c r="N53" s="33">
+      <c r="N53" s="31">
         <v>131.4</v>
       </c>
-      <c r="O53" s="33">
+      <c r="O53" s="31">
         <v>131.4</v>
       </c>
-      <c r="P53" s="33">
+      <c r="P53" s="31">
         <v>131.4</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>170</v>
       </c>
@@ -7965,26 +7962,26 @@
       <c r="J54" s="13">
         <v>125.8</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="31">
         <v>125.8</v>
       </c>
-      <c r="L54" s="33">
+      <c r="L54" s="31">
         <v>125.8</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M54" s="31">
         <v>125.8</v>
       </c>
-      <c r="N54" s="33">
+      <c r="N54" s="31">
         <v>125.8</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O54" s="31">
         <v>125.8</v>
       </c>
-      <c r="P54" s="33">
+      <c r="P54" s="31">
         <v>125.8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>171</v>
       </c>
@@ -8015,26 +8012,26 @@
       <c r="J55" s="15">
         <v>5.6</v>
       </c>
-      <c r="K55" s="35">
+      <c r="K55" s="33">
         <v>5.6</v>
       </c>
-      <c r="L55" s="35">
+      <c r="L55" s="33">
         <v>5.6</v>
       </c>
-      <c r="M55" s="35">
+      <c r="M55" s="33">
         <v>5.6</v>
       </c>
-      <c r="N55" s="35">
+      <c r="N55" s="33">
         <v>5.6</v>
       </c>
-      <c r="O55" s="35">
+      <c r="O55" s="33">
         <v>5.6</v>
       </c>
-      <c r="P55" s="35">
+      <c r="P55" s="33">
         <v>5.6</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>172</v>
       </c>
@@ -8065,26 +8062,26 @@
       <c r="J56" s="13">
         <v>1126</v>
       </c>
-      <c r="K56" s="33">
+      <c r="K56" s="31">
         <v>986.3</v>
       </c>
-      <c r="L56" s="33">
+      <c r="L56" s="31">
         <v>920</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="31">
         <v>812.2</v>
       </c>
-      <c r="N56" s="33">
+      <c r="N56" s="31">
         <v>677</v>
       </c>
-      <c r="O56" s="33">
+      <c r="O56" s="31">
         <v>704.9</v>
       </c>
-      <c r="P56" s="33">
+      <c r="P56" s="31">
         <v>678.3</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
         <v>173</v>
       </c>
@@ -8115,26 +8112,26 @@
       <c r="J57" s="13">
         <v>1126.4000000000001</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="31">
         <v>992.5</v>
       </c>
-      <c r="L57" s="33">
+      <c r="L57" s="31">
         <v>928.8</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="31">
         <v>823.1</v>
       </c>
-      <c r="N57" s="33">
+      <c r="N57" s="31">
         <v>690.1</v>
       </c>
-      <c r="O57" s="33">
+      <c r="O57" s="31">
         <v>704.9</v>
       </c>
-      <c r="P57" s="33">
+      <c r="P57" s="31">
         <v>678.3</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
         <v>174</v>
       </c>
@@ -8177,12 +8174,12 @@
       <c r="N58" s="16">
         <v>-13.1</v>
       </c>
-      <c r="O58" s="34">
+      <c r="O58" s="32">
         <v>0</v>
       </c>
-      <c r="P58" s="34"/>
-    </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="32"/>
+    </row>
+    <row r="59" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8205,12 +8202,12 @@
       <c r="N59" s="16">
         <v>-13.1</v>
       </c>
-      <c r="O59" s="34">
+      <c r="O59" s="32">
         <v>0</v>
       </c>
-      <c r="P59" s="34"/>
-    </row>
-    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="32"/>
+    </row>
+    <row r="60" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28" t="s">
         <v>175</v>
       </c>
@@ -8241,14 +8238,14 @@
       <c r="J60" s="16">
         <v>-0.4</v>
       </c>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-    </row>
-    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+    </row>
+    <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>48</v>
       </c>
@@ -8279,26 +8276,26 @@
       <c r="J61" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L61" s="33">
+      <c r="L61" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="31">
         <v>943.6</v>
       </c>
-      <c r="N61" s="33">
+      <c r="N61" s="31">
         <v>808.4</v>
       </c>
-      <c r="O61" s="33">
+      <c r="O61" s="31">
         <v>836.3</v>
       </c>
-      <c r="P61" s="33">
+      <c r="P61" s="31">
         <v>809.7</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>176</v>
       </c>
@@ -8312,7 +8309,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>177</v>
       </c>
@@ -8343,26 +8340,26 @@
       <c r="J63" s="21">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K63" s="38">
+      <c r="K63" s="36">
         <v>1117.7</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="36">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M63" s="38">
+      <c r="M63" s="36">
         <v>943.6</v>
       </c>
-      <c r="N63" s="38">
+      <c r="N63" s="36">
         <v>808.4</v>
       </c>
-      <c r="O63" s="38">
+      <c r="O63" s="36">
         <v>836.3</v>
       </c>
-      <c r="P63" s="38">
+      <c r="P63" s="36">
         <v>809.7</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>178</v>
       </c>
@@ -8376,7 +8373,7 @@
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
     </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>179</v>
       </c>
@@ -8407,26 +8404,26 @@
       <c r="J65" s="21">
         <v>4778.7</v>
       </c>
-      <c r="K65" s="38">
+      <c r="K65" s="36">
         <v>3521.6</v>
       </c>
-      <c r="L65" s="38">
+      <c r="L65" s="36">
         <v>3234</v>
       </c>
-      <c r="M65" s="38">
+      <c r="M65" s="36">
         <v>3067.5</v>
       </c>
-      <c r="N65" s="38">
+      <c r="N65" s="36">
         <v>2917.6</v>
       </c>
-      <c r="O65" s="38">
+      <c r="O65" s="36">
         <v>2475.1999999999998</v>
       </c>
-      <c r="P65" s="38">
+      <c r="P65" s="36">
         <v>2439.5</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>180</v>
       </c>
@@ -8440,7 +8437,7 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>181</v>
       </c>
@@ -8471,26 +8468,26 @@
       <c r="J67" s="13">
         <v>251.51</v>
       </c>
-      <c r="K67" s="33">
+      <c r="K67" s="31">
         <v>251.51</v>
       </c>
-      <c r="L67" s="33">
+      <c r="L67" s="31">
         <v>251.51</v>
       </c>
-      <c r="M67" s="33">
+      <c r="M67" s="31">
         <v>251.51</v>
       </c>
-      <c r="N67" s="33">
+      <c r="N67" s="31">
         <v>251.51</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O67" s="31">
         <v>251.51</v>
       </c>
-      <c r="P67" s="33">
+      <c r="P67" s="31">
         <v>251.51</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
         <v>68</v>
       </c>
@@ -8521,26 +8518,26 @@
       <c r="J68" s="13">
         <v>251.51</v>
       </c>
-      <c r="K68" s="33">
+      <c r="K68" s="31">
         <v>251.51</v>
       </c>
-      <c r="L68" s="33">
+      <c r="L68" s="31">
         <v>251.51</v>
       </c>
-      <c r="M68" s="33">
+      <c r="M68" s="31">
         <v>251.51</v>
       </c>
-      <c r="N68" s="33">
+      <c r="N68" s="31">
         <v>251.51</v>
       </c>
-      <c r="O68" s="33">
+      <c r="O68" s="31">
         <v>251.51</v>
       </c>
-      <c r="P68" s="33">
+      <c r="P68" s="31">
         <v>251.51</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
         <v>182</v>
       </c>
@@ -8571,28 +8568,28 @@
       <c r="J69" s="14">
         <v>0</v>
       </c>
-      <c r="K69" s="34">
+      <c r="K69" s="32">
         <v>0</v>
       </c>
-      <c r="L69" s="34">
+      <c r="L69" s="32">
         <v>0</v>
       </c>
-      <c r="M69" s="34">
+      <c r="M69" s="32">
         <v>0</v>
       </c>
-      <c r="N69" s="34">
+      <c r="N69" s="32">
         <v>0</v>
       </c>
-      <c r="O69" s="34">
+      <c r="O69" s="32">
         <v>0</v>
       </c>
-      <c r="P69" s="34">
+      <c r="P69" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -8603,20 +8600,20 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
-      <c r="K70" s="33">
+      <c r="K70" s="31">
         <v>400</v>
       </c>
-      <c r="L70" s="33">
+      <c r="L70" s="31">
         <v>400</v>
       </c>
-      <c r="M70" s="33">
+      <c r="M70" s="31">
         <v>400</v>
       </c>
-      <c r="N70" s="34"/>
-      <c r="O70" s="34"/>
-      <c r="P70" s="34"/>
-    </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+    </row>
+    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>183</v>
       </c>
@@ -8647,26 +8644,26 @@
       <c r="J71" s="13">
         <v>251.51</v>
       </c>
-      <c r="K71" s="33">
+      <c r="K71" s="31">
         <v>251.51</v>
       </c>
-      <c r="L71" s="33">
+      <c r="L71" s="31">
         <v>251.51</v>
       </c>
-      <c r="M71" s="33">
+      <c r="M71" s="31">
         <v>251.51</v>
       </c>
-      <c r="N71" s="33">
+      <c r="N71" s="31">
         <v>251.51</v>
       </c>
-      <c r="O71" s="33">
+      <c r="O71" s="31">
         <v>251.51</v>
       </c>
-      <c r="P71" s="33">
+      <c r="P71" s="31">
         <v>251.51</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>184</v>
       </c>
@@ -8697,26 +8694,26 @@
       <c r="J72" s="13">
         <v>251.51</v>
       </c>
-      <c r="K72" s="33">
+      <c r="K72" s="31">
         <v>251.51</v>
       </c>
-      <c r="L72" s="33">
+      <c r="L72" s="31">
         <v>251.51</v>
       </c>
-      <c r="M72" s="33">
+      <c r="M72" s="31">
         <v>251.51</v>
       </c>
-      <c r="N72" s="33">
+      <c r="N72" s="31">
         <v>251.51</v>
       </c>
-      <c r="O72" s="33">
+      <c r="O72" s="31">
         <v>251.51</v>
       </c>
-      <c r="P72" s="33">
+      <c r="P72" s="31">
         <v>251.51</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
         <v>185</v>
       </c>
@@ -8747,26 +8744,26 @@
       <c r="J73" s="14">
         <v>0</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="32">
         <v>0</v>
       </c>
-      <c r="L73" s="34">
+      <c r="L73" s="32">
         <v>0</v>
       </c>
-      <c r="M73" s="34">
+      <c r="M73" s="32">
         <v>0</v>
       </c>
-      <c r="N73" s="34">
+      <c r="N73" s="32">
         <v>0</v>
       </c>
-      <c r="O73" s="34">
+      <c r="O73" s="32">
         <v>0</v>
       </c>
-      <c r="P73" s="34">
+      <c r="P73" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>186</v>
       </c>
@@ -8786,7 +8783,7 @@
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
     </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>187</v>
       </c>
@@ -8818,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>188</v>
       </c>
@@ -8832,7 +8829,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>189</v>
       </c>
@@ -8862,7 +8859,7 @@
       </c>
       <c r="J77" s="14"/>
     </row>
-    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>190</v>
       </c>
@@ -8876,26 +8873,26 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34">
+        <v>330</v>
+      </c>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32">
         <v>0</v>
       </c>
-      <c r="N79" s="35">
+      <c r="N79" s="33">
         <v>45</v>
       </c>
-      <c r="O79" s="35">
+      <c r="O79" s="33">
         <v>15</v>
       </c>
-      <c r="P79" s="33">
+      <c r="P79" s="31">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>191</v>
       </c>
@@ -8926,26 +8923,26 @@
       <c r="J80" s="13">
         <v>273</v>
       </c>
-      <c r="K80" s="33">
+      <c r="K80" s="31">
         <v>352.7</v>
       </c>
-      <c r="L80" s="33">
+      <c r="L80" s="31">
         <v>257</v>
       </c>
-      <c r="M80" s="33">
+      <c r="M80" s="31">
         <v>294.10000000000002</v>
       </c>
-      <c r="N80" s="33">
+      <c r="N80" s="31">
         <v>277.60000000000002</v>
       </c>
-      <c r="O80" s="35">
+      <c r="O80" s="33">
         <v>61</v>
       </c>
-      <c r="P80" s="35">
+      <c r="P80" s="33">
         <v>68.5</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>192</v>
       </c>
@@ -8960,14 +8957,14 @@
       <c r="J81" s="15">
         <v>0.2</v>
       </c>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="33"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="33"/>
-    </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>193</v>
       </c>
@@ -8998,26 +8995,26 @@
       <c r="J82" s="13">
         <v>3240.1</v>
       </c>
-      <c r="K82" s="33">
+      <c r="K82" s="31">
         <v>2128.3000000000002</v>
       </c>
-      <c r="L82" s="33">
+      <c r="L82" s="31">
         <v>1887.1</v>
       </c>
-      <c r="M82" s="33">
+      <c r="M82" s="31">
         <v>1811.4</v>
       </c>
-      <c r="N82" s="33">
+      <c r="N82" s="31">
         <v>1783.2</v>
       </c>
-      <c r="O82" s="33">
+      <c r="O82" s="31">
         <v>1315</v>
       </c>
-      <c r="P82" s="33">
+      <c r="P82" s="31">
         <v>1287.9000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
         <v>194</v>
       </c>
@@ -9048,26 +9045,26 @@
       <c r="J83" s="13">
         <v>3240.1</v>
       </c>
-      <c r="K83" s="33">
+      <c r="K83" s="31">
         <v>2128.3000000000002</v>
       </c>
-      <c r="L83" s="33">
+      <c r="L83" s="31">
         <v>1887.1</v>
       </c>
-      <c r="M83" s="33">
+      <c r="M83" s="31">
         <v>1811.4</v>
       </c>
-      <c r="N83" s="33">
+      <c r="N83" s="31">
         <v>1783.2</v>
       </c>
-      <c r="O83" s="33">
+      <c r="O83" s="31">
         <v>1315</v>
       </c>
-      <c r="P83" s="33">
+      <c r="P83" s="31">
         <v>1287.9000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>195</v>
       </c>
@@ -9081,7 +9078,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
     </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>196</v>
       </c>
@@ -9131,7 +9128,7 @@
         <v>-124</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>197</v>
       </c>
@@ -9145,7 +9142,7 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
     </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>198</v>
       </c>
@@ -9198,7 +9195,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>199</v>
       </c>
@@ -9229,29 +9226,29 @@
       <c r="J88" s="13">
         <v>4772.8</v>
       </c>
-      <c r="K88" s="33">
+      <c r="K88" s="31">
         <v>3306.9</v>
       </c>
-      <c r="L88" s="33">
+      <c r="L88" s="31">
         <v>3056.1</v>
       </c>
-      <c r="M88" s="33">
+      <c r="M88" s="31">
         <v>2846.2</v>
       </c>
-      <c r="N88" s="33">
+      <c r="N88" s="31">
         <v>2905.7</v>
       </c>
-      <c r="O88" s="33">
+      <c r="O88" s="31">
         <v>2474.9</v>
       </c>
-      <c r="P88" s="33">
+      <c r="P88" s="31">
         <v>2439.5</v>
       </c>
       <c r="Q88" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>200</v>
       </c>
@@ -9282,29 +9279,29 @@
       <c r="J89" s="15">
         <v>5.9</v>
       </c>
-      <c r="K89" s="35">
+      <c r="K89" s="33">
         <v>18.7</v>
       </c>
-      <c r="L89" s="35">
+      <c r="L89" s="33">
         <v>17.5</v>
       </c>
-      <c r="M89" s="35">
+      <c r="M89" s="33">
         <v>17.7</v>
       </c>
-      <c r="N89" s="35">
+      <c r="N89" s="33">
         <v>11.9</v>
       </c>
-      <c r="O89" s="35">
+      <c r="O89" s="33">
         <v>0.3</v>
       </c>
-      <c r="P89" s="34">
+      <c r="P89" s="32">
         <v>0</v>
       </c>
       <c r="Q89" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>77</v>
       </c>
@@ -9335,29 +9332,29 @@
       <c r="J90" s="15">
         <v>5.9</v>
       </c>
-      <c r="K90" s="35">
+      <c r="K90" s="33">
         <v>18.7</v>
       </c>
-      <c r="L90" s="35">
+      <c r="L90" s="33">
         <v>17.5</v>
       </c>
-      <c r="M90" s="35">
+      <c r="M90" s="33">
         <v>17.7</v>
       </c>
-      <c r="N90" s="35">
+      <c r="N90" s="33">
         <v>56.9</v>
       </c>
-      <c r="O90" s="35">
+      <c r="O90" s="33">
         <v>15.3</v>
       </c>
-      <c r="P90" s="33">
+      <c r="P90" s="31">
         <v>124</v>
       </c>
       <c r="Q90" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>201</v>
       </c>
@@ -9386,17 +9383,17 @@
         <v>1703.5</v>
       </c>
       <c r="J91" s="14"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="32"/>
       <c r="Q91" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>202</v>
       </c>
@@ -9427,29 +9424,29 @@
       <c r="J92" s="13">
         <v>1251.5</v>
       </c>
-      <c r="K92" s="33">
+      <c r="K92" s="31">
         <v>1099</v>
       </c>
-      <c r="L92" s="33">
+      <c r="L92" s="31">
         <v>1033.9000000000001</v>
       </c>
-      <c r="M92" s="33">
+      <c r="M92" s="31">
         <v>925.9</v>
       </c>
-      <c r="N92" s="33">
+      <c r="N92" s="31">
         <v>751.5</v>
       </c>
-      <c r="O92" s="33">
+      <c r="O92" s="31">
         <v>821</v>
       </c>
-      <c r="P92" s="33">
+      <c r="P92" s="31">
         <v>685.7</v>
       </c>
       <c r="Q92" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>203</v>
       </c>
@@ -9480,29 +9477,29 @@
       <c r="J93" s="13">
         <v>1251.5</v>
       </c>
-      <c r="K93" s="33">
+      <c r="K93" s="31">
         <v>1099</v>
       </c>
-      <c r="L93" s="33">
+      <c r="L93" s="31">
         <v>1033.9000000000001</v>
       </c>
-      <c r="M93" s="33">
+      <c r="M93" s="31">
         <v>925.9</v>
       </c>
-      <c r="N93" s="33">
+      <c r="N93" s="31">
         <v>751.5</v>
       </c>
-      <c r="O93" s="33">
+      <c r="O93" s="31">
         <v>821</v>
       </c>
-      <c r="P93" s="33">
+      <c r="P93" s="31">
         <v>685.7</v>
       </c>
       <c r="Q93" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>204</v>
       </c>
@@ -9533,29 +9530,29 @@
       <c r="J94" s="13">
         <v>281.2</v>
       </c>
-      <c r="K94" s="33">
+      <c r="K94" s="31">
         <v>275.60000000000002</v>
       </c>
-      <c r="L94" s="33">
+      <c r="L94" s="31">
         <v>295.5</v>
       </c>
-      <c r="M94" s="33">
+      <c r="M94" s="31">
         <v>312.5</v>
       </c>
-      <c r="N94" s="33">
+      <c r="N94" s="31">
         <v>326</v>
       </c>
-      <c r="O94" s="33">
+      <c r="O94" s="31">
         <v>323.89999999999998</v>
       </c>
-      <c r="P94" s="33">
+      <c r="P94" s="31">
         <v>341.9</v>
       </c>
       <c r="Q94" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>205</v>
       </c>
@@ -9586,29 +9583,29 @@
       <c r="J95" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K95" s="33">
+      <c r="K95" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L95" s="33">
+      <c r="L95" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M95" s="33">
+      <c r="M95" s="31">
         <v>943.6</v>
       </c>
-      <c r="N95" s="33">
+      <c r="N95" s="31">
         <v>808.4</v>
       </c>
-      <c r="O95" s="33">
+      <c r="O95" s="31">
         <v>836.3</v>
       </c>
-      <c r="P95" s="33">
+      <c r="P95" s="31">
         <v>809.7</v>
       </c>
       <c r="Q95" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>206</v>
       </c>
@@ -9639,29 +9636,29 @@
       <c r="J96" s="13">
         <v>1213.8</v>
       </c>
-      <c r="K96" s="33">
+      <c r="K96" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L96" s="33">
+      <c r="L96" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M96" s="33">
+      <c r="M96" s="31">
         <v>943.6</v>
       </c>
-      <c r="N96" s="33">
+      <c r="N96" s="31">
         <v>808.4</v>
       </c>
-      <c r="O96" s="33">
+      <c r="O96" s="31">
         <v>836.3</v>
       </c>
-      <c r="P96" s="33">
+      <c r="P96" s="31">
         <v>809.7</v>
       </c>
       <c r="Q96" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>207</v>
       </c>
@@ -9692,29 +9689,29 @@
       <c r="J97" s="13">
         <v>1213.8</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L97" s="33">
+      <c r="L97" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M97" s="33">
+      <c r="M97" s="31">
         <v>943.6</v>
       </c>
-      <c r="N97" s="33">
+      <c r="N97" s="31">
         <v>808.4</v>
       </c>
-      <c r="O97" s="33">
+      <c r="O97" s="31">
         <v>836.3</v>
       </c>
-      <c r="P97" s="33">
+      <c r="P97" s="31">
         <v>809.7</v>
       </c>
       <c r="Q97" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>208</v>
       </c>
@@ -9745,29 +9742,29 @@
       <c r="J98" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K98" s="33">
+      <c r="K98" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L98" s="33">
+      <c r="L98" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M98" s="33">
+      <c r="M98" s="31">
         <v>943.6</v>
       </c>
-      <c r="N98" s="33">
+      <c r="N98" s="31">
         <v>808.4</v>
       </c>
-      <c r="O98" s="33">
+      <c r="O98" s="31">
         <v>836.3</v>
       </c>
-      <c r="P98" s="33">
+      <c r="P98" s="31">
         <v>809.7</v>
       </c>
       <c r="Q98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>209</v>
       </c>
@@ -9798,29 +9795,29 @@
       <c r="J99" s="13">
         <v>1257.4000000000001</v>
       </c>
-      <c r="K99" s="33">
+      <c r="K99" s="31">
         <v>1117.7</v>
       </c>
-      <c r="L99" s="33">
+      <c r="L99" s="31">
         <v>1051.4000000000001</v>
       </c>
-      <c r="M99" s="33">
+      <c r="M99" s="31">
         <v>943.6</v>
       </c>
-      <c r="N99" s="33">
+      <c r="N99" s="31">
         <v>808.4</v>
       </c>
-      <c r="O99" s="33">
+      <c r="O99" s="31">
         <v>836.3</v>
       </c>
-      <c r="P99" s="33">
+      <c r="P99" s="31">
         <v>809.7</v>
       </c>
       <c r="Q99" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>210</v>
       </c>
@@ -9851,29 +9848,29 @@
       <c r="J100" s="13">
         <v>4531.5</v>
       </c>
-      <c r="K100" s="33">
+      <c r="K100" s="31">
         <v>3163.3</v>
       </c>
-      <c r="L100" s="33">
+      <c r="L100" s="31">
         <v>2922.6</v>
       </c>
-      <c r="M100" s="33">
+      <c r="M100" s="31">
         <v>2842.4</v>
       </c>
-      <c r="N100" s="33">
+      <c r="N100" s="31">
         <v>2440.1</v>
       </c>
-      <c r="O100" s="33">
+      <c r="O100" s="31">
         <v>2250.6</v>
       </c>
-      <c r="P100" s="33">
+      <c r="P100" s="31">
         <v>2241.4</v>
       </c>
       <c r="Q100" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>211</v>
       </c>
@@ -9904,29 +9901,29 @@
       <c r="J101" s="13">
         <v>4499.8</v>
       </c>
-      <c r="K101" s="33">
+      <c r="K101" s="31">
         <v>3150.2</v>
       </c>
-      <c r="L101" s="33">
+      <c r="L101" s="31">
         <v>2959.5</v>
       </c>
-      <c r="M101" s="33">
+      <c r="M101" s="31">
         <v>2755.7</v>
       </c>
-      <c r="N101" s="33">
+      <c r="N101" s="31">
         <v>2583.1</v>
       </c>
-      <c r="O101" s="33">
+      <c r="O101" s="31">
         <v>2398.9</v>
       </c>
-      <c r="P101" s="33">
+      <c r="P101" s="31">
         <v>2247</v>
       </c>
       <c r="Q101" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>212</v>
       </c>
@@ -9979,7 +9976,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>213</v>
       </c>
@@ -10034,29 +10031,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="G13"/>
     <mergeCell ref="B12"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C12"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D12"/>
     <mergeCell ref="D13"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="H12"/>
-    <mergeCell ref="H13"/>
-    <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
@@ -10074,13 +10071,13 @@
       <selection activeCell="L11" sqref="L11:Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.6640625" customWidth="1"/>
-    <col min="2" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -10095,7 +10092,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -10103,7 +10100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10111,7 +10108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -10119,7 +10116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -10127,7 +10124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -10135,7 +10132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -10143,7 +10140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -10151,7 +10148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -10159,7 +10156,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -10167,112 +10164,112 @@
         <v>44954.495352291699</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="39">
         <v>44286</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="39">
         <v>44104</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="39">
         <v>43921</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="39">
         <v>43738</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="39">
         <v>43555</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="39">
         <v>43373</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="39">
         <v>43190</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="39">
         <v>43008</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="39">
         <v>42825</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="39">
         <v>42643</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="31" t="s">
+      <c r="H13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="I13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="J13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>215</v>
       </c>
@@ -10287,7 +10284,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
@@ -10322,7 +10319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -10337,7 +10334,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>217</v>
       </c>
@@ -10372,7 +10369,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>218</v>
       </c>
@@ -10407,7 +10404,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>38</v>
       </c>
@@ -10442,7 +10439,7 @@
         <v>294.39999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>219</v>
       </c>
@@ -10457,7 +10454,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>220</v>
       </c>
@@ -10492,7 +10489,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>221</v>
       </c>
@@ -10527,7 +10524,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>39</v>
       </c>
@@ -10562,7 +10559,7 @@
         <v>279.3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>222</v>
       </c>
@@ -10597,7 +10594,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>223</v>
       </c>
@@ -10632,7 +10629,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>224</v>
       </c>
@@ -10647,7 +10644,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>40</v>
       </c>
@@ -10682,7 +10679,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>225</v>
       </c>
@@ -10697,7 +10694,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>226</v>
       </c>
@@ -10732,7 +10729,7 @@
         <v>-124.9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>227</v>
       </c>
@@ -10767,7 +10764,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>228</v>
       </c>
@@ -10800,7 +10797,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>229</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>230</v>
       </c>
@@ -10868,7 +10865,7 @@
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
         <v>231</v>
       </c>
@@ -10901,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>232</v>
       </c>
@@ -10934,7 +10931,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>233</v>
       </c>
@@ -10961,7 +10958,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
         <v>234</v>
       </c>
@@ -10994,7 +10991,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>235</v>
       </c>
@@ -11027,7 +11024,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>236</v>
       </c>
@@ -11060,7 +11057,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
         <v>237</v>
       </c>
@@ -11093,7 +11090,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>238</v>
       </c>
@@ -11126,7 +11123,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>239</v>
       </c>
@@ -11141,7 +11138,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>240</v>
       </c>
@@ -11174,7 +11171,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>241</v>
       </c>
@@ -11207,7 +11204,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>242</v>
       </c>
@@ -11222,7 +11219,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>243</v>
       </c>
@@ -11257,7 +11254,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>244</v>
       </c>
@@ -11272,7 +11269,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>245</v>
       </c>
@@ -11307,7 +11304,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>246</v>
       </c>
@@ -11342,7 +11339,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>247</v>
       </c>
@@ -11357,7 +11354,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>248</v>
       </c>
@@ -11392,7 +11389,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>249</v>
       </c>
@@ -11407,7 +11404,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>42</v>
       </c>
@@ -11442,7 +11439,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>250</v>
       </c>
@@ -11475,7 +11472,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>251</v>
       </c>
@@ -11508,7 +11505,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>252</v>
       </c>
@@ -11523,7 +11520,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>253</v>
       </c>
@@ -11558,7 +11555,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>254</v>
       </c>
@@ -11573,7 +11570,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>255</v>
       </c>
@@ -11608,7 +11605,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>256</v>
       </c>
@@ -11643,7 +11640,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
         <v>257</v>
       </c>
@@ -11676,7 +11673,7 @@
         <v>251.51</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>258</v>
       </c>
@@ -11709,7 +11706,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>259</v>
       </c>
@@ -11742,7 +11739,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>260</v>
       </c>
@@ -11775,7 +11772,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>261</v>
       </c>
@@ -11808,7 +11805,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>262</v>
       </c>
@@ -11841,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>263</v>
       </c>
@@ -11874,7 +11871,7 @@
         <v>251.51</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>264</v>
       </c>
@@ -11907,7 +11904,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>265</v>
       </c>
@@ -11940,7 +11937,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>266</v>
       </c>
@@ -11973,7 +11970,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>267</v>
       </c>
@@ -12006,7 +12003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>268</v>
       </c>
@@ -12021,7 +12018,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>269</v>
       </c>
@@ -12056,7 +12053,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>270</v>
       </c>
@@ -12091,7 +12088,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
         <v>56</v>
       </c>
@@ -12124,7 +12121,7 @@
         <v>251.51</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>271</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>55</v>
       </c>
@@ -12190,7 +12187,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>272</v>
       </c>
@@ -12223,7 +12220,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>273</v>
       </c>
@@ -12256,7 +12253,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>274</v>
       </c>
@@ -12289,7 +12286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
         <v>275</v>
       </c>
@@ -12322,7 +12319,7 @@
         <v>251.51</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>276</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>277</v>
       </c>
@@ -12388,7 +12385,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>278</v>
       </c>
@@ -12421,7 +12418,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>279</v>
       </c>
@@ -12454,7 +12451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>280</v>
       </c>
@@ -12469,7 +12466,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>281</v>
       </c>
@@ -12502,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>282</v>
       </c>
@@ -12535,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>283</v>
       </c>
@@ -12550,7 +12547,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>284</v>
       </c>
@@ -12585,7 +12582,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>41</v>
       </c>
@@ -12618,7 +12615,7 @@
         <v>203.6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>285</v>
       </c>
@@ -12633,7 +12630,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="11"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>286</v>
       </c>
@@ -12666,7 +12663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
         <v>287</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>288</v>
       </c>
@@ -12732,7 +12729,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="24" t="s">
         <v>289</v>
       </c>
@@ -12765,7 +12762,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>290</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>291</v>
       </c>
@@ -12813,7 +12810,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>292</v>
       </c>
@@ -12846,7 +12843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
         <v>293</v>
       </c>
@@ -12879,7 +12876,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
         <v>294</v>
       </c>
@@ -12912,7 +12909,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>295</v>
       </c>
@@ -12927,7 +12924,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>296</v>
       </c>
@@ -12962,7 +12959,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>297</v>
       </c>
@@ -12997,7 +12994,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>298</v>
       </c>
@@ -13032,7 +13029,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>299</v>
       </c>
@@ -13065,7 +13062,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>300</v>
       </c>
@@ -13098,7 +13095,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>301</v>
       </c>
@@ -13113,7 +13110,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>302</v>
       </c>
@@ -13146,7 +13143,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
         <v>303</v>
       </c>
@@ -13179,7 +13176,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>197</v>
       </c>
@@ -13194,7 +13191,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>304</v>
       </c>
@@ -13229,7 +13226,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>305</v>
       </c>
@@ -13262,7 +13259,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>306</v>
       </c>
@@ -13297,7 +13294,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>219</v>
       </c>
@@ -13332,7 +13329,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>307</v>
       </c>
@@ -13369,11 +13366,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="K13"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="B12"/>
     <mergeCell ref="B13"/>
@@ -13390,11 +13387,11 @@
     <mergeCell ref="H12"/>
     <mergeCell ref="H13"/>
     <mergeCell ref="I12"/>
-    <mergeCell ref="I13"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="J13"/>
-    <mergeCell ref="K12"/>
-    <mergeCell ref="K13"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.75"/>
   <pageSetup fitToHeight="0"/>
